--- a/public/documents/iAqua Aquatics Plants.xlsx
+++ b/public/documents/iAqua Aquatics Plants.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\notkr\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\notkr\OneDrive\Documents\Files\iAqua\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA100F0-D4B6-4635-9585-C56AF77E49E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0FA37C-FC75-4B98-82D8-6C2FBAB43219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="325">
   <si>
     <r>
       <rPr>
@@ -398,9 +398,6 @@
   </si>
   <si>
     <t>NANA - LG</t>
-  </si>
-  <si>
-    <t>---</t>
   </si>
   <si>
     <t>NANCON - SM</t>
@@ -1223,12 +1220,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="27">
@@ -1575,7 +1578,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1640,9 +1643,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1741,6 +1741,15 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1960,7 +1969,7 @@
   <dimension ref="A1:X992"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1974,12 +1983,12 @@
   <sheetData>
     <row r="1" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
-      <c r="B1" s="55" t="s">
-        <v>325</v>
-      </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
+      <c r="B1" s="54" t="s">
+        <v>324</v>
+      </c>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -2054,12 +2063,12 @@
     </row>
     <row r="4" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="58"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="57"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -2082,10 +2091,10 @@
     </row>
     <row r="5" spans="1:24" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="61"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="60"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -2115,7 +2124,7 @@
       <c r="D6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="52" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="10"/>
@@ -2145,7 +2154,7 @@
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="20">
-        <v>2.99</v>
+        <v>5.49</v>
       </c>
       <c r="E7" s="21"/>
       <c r="F7" s="17"/>
@@ -2175,7 +2184,7 @@
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25">
-        <v>2.99</v>
+        <v>5.49</v>
       </c>
       <c r="E8" s="21"/>
       <c r="F8" s="22"/>
@@ -2205,7 +2214,7 @@
       </c>
       <c r="C9" s="24"/>
       <c r="D9" s="25">
-        <v>2.99</v>
+        <v>5.49</v>
       </c>
       <c r="E9" s="21"/>
       <c r="F9" s="22"/>
@@ -2235,7 +2244,7 @@
       </c>
       <c r="C10" s="24"/>
       <c r="D10" s="25">
-        <v>2.99</v>
+        <v>5.49</v>
       </c>
       <c r="E10" s="21"/>
       <c r="F10" s="22"/>
@@ -2265,7 +2274,7 @@
       </c>
       <c r="C11" s="24"/>
       <c r="D11" s="25">
-        <v>2.4900000000000002</v>
+        <v>4.99</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="22"/>
@@ -2295,7 +2304,7 @@
       </c>
       <c r="C12" s="24"/>
       <c r="D12" s="25">
-        <v>2.4900000000000002</v>
+        <v>4.99</v>
       </c>
       <c r="E12" s="21"/>
       <c r="F12" s="22"/>
@@ -2325,7 +2334,7 @@
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="25">
-        <v>2.4900000000000002</v>
+        <v>4.99</v>
       </c>
       <c r="E13" s="21"/>
       <c r="F13" s="22"/>
@@ -2355,7 +2364,7 @@
       </c>
       <c r="C14" s="24"/>
       <c r="D14" s="25">
-        <v>2.4900000000000002</v>
+        <v>4.99</v>
       </c>
       <c r="E14" s="21"/>
       <c r="F14" s="22"/>
@@ -2385,7 +2394,7 @@
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="20">
-        <v>2.79</v>
+        <v>5.29</v>
       </c>
       <c r="E15" s="21"/>
       <c r="F15" s="17"/>
@@ -2415,7 +2424,7 @@
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="25">
-        <v>2.4900000000000002</v>
+        <v>4.99</v>
       </c>
       <c r="E16" s="21"/>
       <c r="F16" s="22"/>
@@ -2445,7 +2454,7 @@
       </c>
       <c r="C17" s="24"/>
       <c r="D17" s="25">
-        <v>2.4900000000000002</v>
+        <v>4.99</v>
       </c>
       <c r="E17" s="21"/>
       <c r="F17" s="22"/>
@@ -2475,7 +2484,7 @@
       </c>
       <c r="C18" s="24"/>
       <c r="D18" s="25">
-        <v>2.4900000000000002</v>
+        <v>4.99</v>
       </c>
       <c r="E18" s="21"/>
       <c r="F18" s="22"/>
@@ -2505,7 +2514,7 @@
       </c>
       <c r="C19" s="24"/>
       <c r="D19" s="25">
-        <v>2.4900000000000002</v>
+        <v>4.99</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="22"/>
@@ -2535,7 +2544,7 @@
       </c>
       <c r="C20" s="24"/>
       <c r="D20" s="25">
-        <v>3.59</v>
+        <v>6.09</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="22"/>
@@ -2565,7 +2574,7 @@
       </c>
       <c r="C21" s="24"/>
       <c r="D21" s="25">
-        <v>2.4900000000000002</v>
+        <v>4.99</v>
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="22"/>
@@ -2595,7 +2604,7 @@
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="20">
-        <v>2.4900000000000002</v>
+        <v>4.99</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="17"/>
@@ -2625,7 +2634,7 @@
       </c>
       <c r="C23" s="24"/>
       <c r="D23" s="25">
-        <v>2.79</v>
+        <v>5.29</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="22"/>
@@ -2655,7 +2664,7 @@
       </c>
       <c r="C24" s="24"/>
       <c r="D24" s="25">
-        <v>2.4900000000000002</v>
+        <v>4.99</v>
       </c>
       <c r="E24" s="21"/>
       <c r="F24" s="22"/>
@@ -2685,7 +2694,7 @@
       </c>
       <c r="C25" s="24"/>
       <c r="D25" s="25">
-        <v>1.49</v>
+        <v>3.99</v>
       </c>
       <c r="E25" s="21"/>
       <c r="F25" s="22"/>
@@ -2715,7 +2724,7 @@
       </c>
       <c r="C26" s="24"/>
       <c r="D26" s="25">
-        <v>2.4900000000000002</v>
+        <v>4.99</v>
       </c>
       <c r="E26" s="21"/>
       <c r="F26" s="22"/>
@@ -2745,7 +2754,7 @@
       </c>
       <c r="C27" s="24"/>
       <c r="D27" s="25">
-        <v>2.4900000000000002</v>
+        <v>4.99</v>
       </c>
       <c r="E27" s="21"/>
       <c r="F27" s="22"/>
@@ -2775,7 +2784,7 @@
       </c>
       <c r="C28" s="24"/>
       <c r="D28" s="25">
-        <v>2.89</v>
+        <v>5.39</v>
       </c>
       <c r="E28" s="21"/>
       <c r="F28" s="22"/>
@@ -2805,7 +2814,7 @@
       </c>
       <c r="C29" s="24"/>
       <c r="D29" s="25">
-        <v>2.4900000000000002</v>
+        <v>4.99</v>
       </c>
       <c r="E29" s="21"/>
       <c r="F29" s="22"/>
@@ -2835,7 +2844,7 @@
       </c>
       <c r="C30" s="24"/>
       <c r="D30" s="25">
-        <v>2.4900000000000002</v>
+        <v>4.99</v>
       </c>
       <c r="E30" s="21"/>
       <c r="F30" s="22"/>
@@ -2865,7 +2874,7 @@
       </c>
       <c r="C31" s="24"/>
       <c r="D31" s="25">
-        <v>2.4900000000000002</v>
+        <v>4.99</v>
       </c>
       <c r="E31" s="21"/>
       <c r="F31" s="22"/>
@@ -2895,7 +2904,7 @@
       </c>
       <c r="C32" s="24"/>
       <c r="D32" s="25">
-        <v>2.4900000000000002</v>
+        <v>4.99</v>
       </c>
       <c r="E32" s="21"/>
       <c r="F32" s="22"/>
@@ -2925,7 +2934,7 @@
       </c>
       <c r="C33" s="24"/>
       <c r="D33" s="25">
-        <v>2.4900000000000002</v>
+        <v>4.99</v>
       </c>
       <c r="E33" s="21"/>
       <c r="F33" s="22"/>
@@ -2955,7 +2964,7 @@
       </c>
       <c r="C34" s="24"/>
       <c r="D34" s="25">
-        <v>2.4900000000000002</v>
+        <v>4.99</v>
       </c>
       <c r="E34" s="21"/>
       <c r="F34" s="22"/>
@@ -2985,7 +2994,7 @@
       </c>
       <c r="C35" s="24"/>
       <c r="D35" s="25">
-        <v>2.4900000000000002</v>
+        <v>4.99</v>
       </c>
       <c r="E35" s="21"/>
       <c r="F35" s="22"/>
@@ -3015,7 +3024,7 @@
       </c>
       <c r="C36" s="24"/>
       <c r="D36" s="25">
-        <v>2.4900000000000002</v>
+        <v>4.99</v>
       </c>
       <c r="E36" s="21"/>
       <c r="F36" s="22"/>
@@ -3045,7 +3054,7 @@
       </c>
       <c r="C37" s="24"/>
       <c r="D37" s="20">
-        <v>2.59</v>
+        <v>5.09</v>
       </c>
       <c r="E37" s="21"/>
       <c r="F37" s="22"/>
@@ -3075,7 +3084,7 @@
       </c>
       <c r="C38" s="24"/>
       <c r="D38" s="25">
-        <v>2.69</v>
+        <v>5.19</v>
       </c>
       <c r="E38" s="21"/>
       <c r="F38" s="22"/>
@@ -3105,7 +3114,7 @@
       </c>
       <c r="C39" s="24"/>
       <c r="D39" s="25">
-        <v>2.89</v>
+        <v>5.39</v>
       </c>
       <c r="E39" s="21"/>
       <c r="F39" s="22"/>
@@ -3135,7 +3144,7 @@
       </c>
       <c r="C40" s="24"/>
       <c r="D40" s="25">
-        <v>2.89</v>
+        <v>5.39</v>
       </c>
       <c r="E40" s="21"/>
       <c r="F40" s="22"/>
@@ -3165,7 +3174,7 @@
       </c>
       <c r="C41" s="24"/>
       <c r="D41" s="25">
-        <v>2.89</v>
+        <v>5.39</v>
       </c>
       <c r="E41" s="21"/>
       <c r="F41" s="22"/>
@@ -3195,7 +3204,7 @@
       </c>
       <c r="C42" s="24"/>
       <c r="D42" s="25">
-        <v>2.89</v>
+        <v>5.39</v>
       </c>
       <c r="E42" s="21"/>
       <c r="F42" s="22"/>
@@ -3225,7 +3234,7 @@
       </c>
       <c r="C43" s="24"/>
       <c r="D43" s="25">
-        <v>2.69</v>
+        <v>5.19</v>
       </c>
       <c r="E43" s="21"/>
       <c r="F43" s="22"/>
@@ -3255,7 +3264,7 @@
       </c>
       <c r="C44" s="24"/>
       <c r="D44" s="25">
-        <v>2.4900000000000002</v>
+        <v>4.99</v>
       </c>
       <c r="E44" s="21"/>
       <c r="F44" s="22"/>
@@ -3285,7 +3294,7 @@
       </c>
       <c r="C45" s="24"/>
       <c r="D45" s="20">
-        <v>2.96</v>
+        <v>5.46</v>
       </c>
       <c r="E45" s="21"/>
       <c r="F45" s="22"/>
@@ -3315,7 +3324,7 @@
       </c>
       <c r="C46" s="24"/>
       <c r="D46" s="25">
-        <v>2.4900000000000002</v>
+        <v>4.99</v>
       </c>
       <c r="E46" s="21"/>
       <c r="F46" s="22"/>
@@ -3345,7 +3354,7 @@
       </c>
       <c r="C47" s="24"/>
       <c r="D47" s="25">
-        <v>2.89</v>
+        <v>5.39</v>
       </c>
       <c r="E47" s="21"/>
       <c r="F47" s="22"/>
@@ -3375,7 +3384,7 @@
       </c>
       <c r="C48" s="24"/>
       <c r="D48" s="25">
-        <v>2.4900000000000002</v>
+        <v>4.99</v>
       </c>
       <c r="E48" s="21"/>
       <c r="F48" s="22"/>
@@ -3405,7 +3414,7 @@
       </c>
       <c r="C49" s="24"/>
       <c r="D49" s="25">
-        <v>2.4900000000000002</v>
+        <v>4.99</v>
       </c>
       <c r="E49" s="21"/>
       <c r="F49" s="22"/>
@@ -3435,7 +3444,7 @@
       </c>
       <c r="C50" s="19"/>
       <c r="D50" s="20">
-        <v>2.89</v>
+        <v>5.39</v>
       </c>
       <c r="E50" s="21"/>
       <c r="F50" s="17"/>
@@ -3465,7 +3474,7 @@
       </c>
       <c r="C51" s="24"/>
       <c r="D51" s="25">
-        <v>2.59</v>
+        <v>5.09</v>
       </c>
       <c r="E51" s="21"/>
       <c r="F51" s="22"/>
@@ -3495,7 +3504,7 @@
       </c>
       <c r="C52" s="24"/>
       <c r="D52" s="25">
-        <v>2.4900000000000002</v>
+        <v>4.99</v>
       </c>
       <c r="E52" s="21"/>
       <c r="F52" s="22"/>
@@ -3546,7 +3555,7 @@
     </row>
     <row r="54" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="22"/>
-      <c r="B54" s="26" t="s">
+      <c r="B54" s="61" t="s">
         <v>50</v>
       </c>
       <c r="C54" s="24"/>
@@ -3579,7 +3588,7 @@
       </c>
       <c r="C55" s="24"/>
       <c r="D55" s="25">
-        <v>2.99</v>
+        <v>5.49</v>
       </c>
       <c r="E55" s="21"/>
       <c r="F55" s="22"/>
@@ -3609,7 +3618,7 @@
       </c>
       <c r="C56" s="24"/>
       <c r="D56" s="25">
-        <v>2.99</v>
+        <v>5.49</v>
       </c>
       <c r="E56" s="21"/>
       <c r="F56" s="22"/>
@@ -3639,7 +3648,7 @@
       </c>
       <c r="C57" s="24"/>
       <c r="D57" s="25">
-        <v>4.8899999999999997</v>
+        <v>7.39</v>
       </c>
       <c r="E57" s="21"/>
       <c r="F57" s="22"/>
@@ -3669,7 +3678,7 @@
       </c>
       <c r="C58" s="24"/>
       <c r="D58" s="25">
-        <v>7.49</v>
+        <v>9.99</v>
       </c>
       <c r="E58" s="21"/>
       <c r="F58" s="22"/>
@@ -3699,7 +3708,7 @@
       </c>
       <c r="C59" s="24"/>
       <c r="D59" s="25">
-        <v>2.89</v>
+        <v>5.39</v>
       </c>
       <c r="E59" s="21"/>
       <c r="F59" s="22"/>
@@ -3729,7 +3738,7 @@
       </c>
       <c r="C60" s="24"/>
       <c r="D60" s="25">
-        <v>2.89</v>
+        <v>5.39</v>
       </c>
       <c r="E60" s="21"/>
       <c r="F60" s="22"/>
@@ -3759,7 +3768,7 @@
       </c>
       <c r="C61" s="24"/>
       <c r="D61" s="25">
-        <v>3.99</v>
+        <v>6.49</v>
       </c>
       <c r="E61" s="21"/>
       <c r="F61" s="22"/>
@@ -3789,7 +3798,7 @@
       </c>
       <c r="C62" s="24"/>
       <c r="D62" s="25">
-        <v>4.99</v>
+        <v>7.49</v>
       </c>
       <c r="E62" s="21"/>
       <c r="F62" s="22"/>
@@ -3819,7 +3828,7 @@
       </c>
       <c r="C63" s="24"/>
       <c r="D63" s="25">
-        <v>7.99</v>
+        <v>10.49</v>
       </c>
       <c r="E63" s="21"/>
       <c r="F63" s="22"/>
@@ -3844,12 +3853,12 @@
     </row>
     <row r="64" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="17"/>
-      <c r="B64" s="54" t="s">
+      <c r="B64" s="53" t="s">
         <v>60</v>
       </c>
       <c r="C64" s="19"/>
       <c r="D64" s="25">
-        <v>4.87</v>
+        <v>7.37</v>
       </c>
       <c r="E64" s="21"/>
       <c r="F64" s="17"/>
@@ -3879,7 +3888,7 @@
       </c>
       <c r="C65" s="19"/>
       <c r="D65" s="20">
-        <v>4.58</v>
+        <v>7.08</v>
       </c>
       <c r="E65" s="21"/>
       <c r="F65" s="17"/>
@@ -3909,7 +3918,7 @@
       </c>
       <c r="C66" s="19"/>
       <c r="D66" s="20">
-        <v>4.99</v>
+        <v>7.49</v>
       </c>
       <c r="E66" s="21"/>
       <c r="F66" s="17"/>
@@ -3939,7 +3948,7 @@
       </c>
       <c r="C67" s="19"/>
       <c r="D67" s="20">
-        <v>6.99</v>
+        <v>9.49</v>
       </c>
       <c r="E67" s="21"/>
       <c r="F67" s="17"/>
@@ -3969,7 +3978,7 @@
       </c>
       <c r="C68" s="24"/>
       <c r="D68" s="25">
-        <v>4.8899999999999997</v>
+        <v>7.39</v>
       </c>
       <c r="E68" s="21"/>
       <c r="F68" s="22"/>
@@ -3999,7 +4008,7 @@
       </c>
       <c r="C69" s="24"/>
       <c r="D69" s="25">
-        <v>5.99</v>
+        <v>8.49</v>
       </c>
       <c r="E69" s="21"/>
       <c r="F69" s="22"/>
@@ -4029,7 +4038,7 @@
       </c>
       <c r="C70" s="24"/>
       <c r="D70" s="25">
-        <v>8.9499999999999993</v>
+        <v>11.45</v>
       </c>
       <c r="E70" s="21"/>
       <c r="F70" s="22"/>
@@ -4059,7 +4068,7 @@
       </c>
       <c r="C71" s="24"/>
       <c r="D71" s="25">
-        <v>4.99</v>
+        <v>7.49</v>
       </c>
       <c r="E71" s="21"/>
       <c r="F71" s="22"/>
@@ -4089,7 +4098,7 @@
       </c>
       <c r="C72" s="24"/>
       <c r="D72" s="25">
-        <v>5.99</v>
+        <v>8.49</v>
       </c>
       <c r="E72" s="21"/>
       <c r="F72" s="22"/>
@@ -4119,7 +4128,7 @@
       </c>
       <c r="C73" s="24"/>
       <c r="D73" s="25">
-        <v>8.99</v>
+        <v>11.49</v>
       </c>
       <c r="E73" s="21"/>
       <c r="F73" s="22"/>
@@ -4149,7 +4158,7 @@
       </c>
       <c r="C74" s="24"/>
       <c r="D74" s="25">
-        <v>5.99</v>
+        <v>8.49</v>
       </c>
       <c r="E74" s="21"/>
       <c r="F74" s="22"/>
@@ -4179,7 +4188,7 @@
       </c>
       <c r="C75" s="24"/>
       <c r="D75" s="25">
-        <v>5.99</v>
+        <v>8.49</v>
       </c>
       <c r="E75" s="21"/>
       <c r="F75" s="22"/>
@@ -4209,7 +4218,7 @@
       </c>
       <c r="C76" s="24"/>
       <c r="D76" s="25">
-        <v>8.99</v>
+        <v>11.49</v>
       </c>
       <c r="E76" s="21"/>
       <c r="F76" s="22"/>
@@ -4239,7 +4248,7 @@
       </c>
       <c r="C77" s="24"/>
       <c r="D77" s="25">
-        <v>3.99</v>
+        <v>6.49</v>
       </c>
       <c r="E77" s="21"/>
       <c r="F77" s="22"/>
@@ -4269,7 +4278,7 @@
       </c>
       <c r="C78" s="24"/>
       <c r="D78" s="25">
-        <v>4.9800000000000004</v>
+        <v>7.48</v>
       </c>
       <c r="E78" s="21"/>
       <c r="F78" s="22"/>
@@ -4299,7 +4308,7 @@
       </c>
       <c r="C79" s="24"/>
       <c r="D79" s="25">
-        <v>4.99</v>
+        <v>7.49</v>
       </c>
       <c r="E79" s="21"/>
       <c r="F79" s="22"/>
@@ -4329,7 +4338,7 @@
       </c>
       <c r="C80" s="19"/>
       <c r="D80" s="20">
-        <v>4.99</v>
+        <v>7.49</v>
       </c>
       <c r="E80" s="21"/>
       <c r="F80" s="17"/>
@@ -4359,7 +4368,7 @@
       </c>
       <c r="C81" s="24"/>
       <c r="D81" s="25">
-        <v>6.99</v>
+        <v>9.49</v>
       </c>
       <c r="E81" s="21"/>
       <c r="F81" s="22"/>
@@ -4389,7 +4398,7 @@
       </c>
       <c r="C82" s="24"/>
       <c r="D82" s="25">
-        <v>4.99</v>
+        <v>7.49</v>
       </c>
       <c r="E82" s="21"/>
       <c r="F82" s="22"/>
@@ -4419,7 +4428,7 @@
       </c>
       <c r="C83" s="24"/>
       <c r="D83" s="25">
-        <v>6.99</v>
+        <v>9.49</v>
       </c>
       <c r="E83" s="21"/>
       <c r="F83" s="22"/>
@@ -4449,7 +4458,7 @@
       </c>
       <c r="C84" s="24"/>
       <c r="D84" s="25">
-        <v>3.96</v>
+        <v>6.46</v>
       </c>
       <c r="E84" s="21"/>
       <c r="F84" s="22"/>
@@ -4479,7 +4488,7 @@
       </c>
       <c r="C85" s="24"/>
       <c r="D85" s="25">
-        <v>4.75</v>
+        <v>7.25</v>
       </c>
       <c r="E85" s="21"/>
       <c r="F85" s="22"/>
@@ -4509,7 +4518,7 @@
       </c>
       <c r="C86" s="24"/>
       <c r="D86" s="25">
-        <v>8.99</v>
+        <v>11.49</v>
       </c>
       <c r="E86" s="21"/>
       <c r="F86" s="22"/>
@@ -4539,7 +4548,7 @@
       </c>
       <c r="C87" s="24"/>
       <c r="D87" s="25">
-        <v>4.58</v>
+        <v>7.08</v>
       </c>
       <c r="E87" s="21"/>
       <c r="F87" s="22"/>
@@ -4569,7 +4578,7 @@
       </c>
       <c r="C88" s="24"/>
       <c r="D88" s="25">
-        <v>4.99</v>
+        <v>7.49</v>
       </c>
       <c r="E88" s="21"/>
       <c r="F88" s="22"/>
@@ -4599,7 +4608,7 @@
       </c>
       <c r="C89" s="24"/>
       <c r="D89" s="25">
-        <v>4.99</v>
+        <v>7.49</v>
       </c>
       <c r="E89" s="21"/>
       <c r="F89" s="22"/>
@@ -4629,7 +4638,7 @@
       </c>
       <c r="C90" s="24"/>
       <c r="D90" s="25">
-        <v>4.99</v>
+        <v>7.49</v>
       </c>
       <c r="E90" s="21"/>
       <c r="F90" s="22"/>
@@ -4659,7 +4668,7 @@
       </c>
       <c r="C91" s="24"/>
       <c r="D91" s="25">
-        <v>9.89</v>
+        <v>12.39</v>
       </c>
       <c r="E91" s="21"/>
       <c r="F91" s="22"/>
@@ -4689,7 +4698,7 @@
       </c>
       <c r="C92" s="24"/>
       <c r="D92" s="25">
-        <v>4.87</v>
+        <v>7.37</v>
       </c>
       <c r="E92" s="21"/>
       <c r="F92" s="22"/>
@@ -4719,7 +4728,7 @@
       </c>
       <c r="C93" s="24"/>
       <c r="D93" s="25">
-        <v>5.87</v>
+        <v>8.3699999999999992</v>
       </c>
       <c r="E93" s="21"/>
       <c r="F93" s="22"/>
@@ -4749,7 +4758,7 @@
       </c>
       <c r="C94" s="24"/>
       <c r="D94" s="25">
-        <v>7.85</v>
+        <v>10.35</v>
       </c>
       <c r="E94" s="21"/>
       <c r="F94" s="22"/>
@@ -4779,7 +4788,7 @@
       </c>
       <c r="C95" s="24"/>
       <c r="D95" s="25">
-        <v>3.99</v>
+        <v>6.49</v>
       </c>
       <c r="E95" s="21"/>
       <c r="F95" s="22"/>
@@ -4809,7 +4818,7 @@
       </c>
       <c r="C96" s="24"/>
       <c r="D96" s="25">
-        <v>5.99</v>
+        <v>8.49</v>
       </c>
       <c r="E96" s="21"/>
       <c r="F96" s="22"/>
@@ -4839,7 +4848,7 @@
       </c>
       <c r="C97" s="19"/>
       <c r="D97" s="20">
-        <v>5.99</v>
+        <v>8.49</v>
       </c>
       <c r="E97" s="21"/>
       <c r="F97" s="17"/>
@@ -4869,7 +4878,7 @@
       </c>
       <c r="C98" s="19"/>
       <c r="D98" s="20">
-        <v>8.99</v>
+        <v>11.49</v>
       </c>
       <c r="E98" s="21"/>
       <c r="F98" s="17"/>
@@ -4899,7 +4908,7 @@
       </c>
       <c r="C99" s="19"/>
       <c r="D99" s="20">
-        <v>13.98</v>
+        <v>18.98</v>
       </c>
       <c r="E99" s="21"/>
       <c r="F99" s="17"/>
@@ -4929,7 +4938,7 @@
       </c>
       <c r="C100" s="24"/>
       <c r="D100" s="25">
-        <v>6.89</v>
+        <v>9.39</v>
       </c>
       <c r="E100" s="21"/>
       <c r="F100" s="22"/>
@@ -4959,7 +4968,7 @@
       </c>
       <c r="C101" s="24"/>
       <c r="D101" s="25">
-        <v>4.58</v>
+        <v>7.08</v>
       </c>
       <c r="E101" s="21"/>
       <c r="F101" s="22"/>
@@ -5010,7 +5019,7 @@
     </row>
     <row r="103" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="22"/>
-      <c r="B103" s="26" t="s">
+      <c r="B103" s="61" t="s">
         <v>98</v>
       </c>
       <c r="C103" s="24"/>
@@ -5043,7 +5052,7 @@
       </c>
       <c r="C104" s="24"/>
       <c r="D104" s="25">
-        <v>4.6900000000000004</v>
+        <v>7.19</v>
       </c>
       <c r="E104" s="21"/>
       <c r="F104" s="22"/>
@@ -5073,7 +5082,7 @@
       </c>
       <c r="C105" s="24"/>
       <c r="D105" s="25">
-        <v>6.59</v>
+        <v>9.09</v>
       </c>
       <c r="E105" s="21"/>
       <c r="F105" s="22"/>
@@ -5103,7 +5112,7 @@
       </c>
       <c r="C106" s="24"/>
       <c r="D106" s="25">
-        <v>4.6900000000000004</v>
+        <v>7.19</v>
       </c>
       <c r="E106" s="21"/>
       <c r="F106" s="22"/>
@@ -5133,7 +5142,7 @@
       </c>
       <c r="C107" s="24"/>
       <c r="D107" s="25">
-        <v>6.45</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="E107" s="21"/>
       <c r="F107" s="22"/>
@@ -5163,7 +5172,7 @@
       </c>
       <c r="C108" s="24"/>
       <c r="D108" s="25">
-        <v>4.6900000000000004</v>
+        <v>7.19</v>
       </c>
       <c r="E108" s="21"/>
       <c r="F108" s="22"/>
@@ -5193,7 +5202,7 @@
       </c>
       <c r="C109" s="24"/>
       <c r="D109" s="25">
-        <v>6.58</v>
+        <v>9.08</v>
       </c>
       <c r="E109" s="21"/>
       <c r="F109" s="22"/>
@@ -5223,7 +5232,7 @@
       </c>
       <c r="C110" s="24"/>
       <c r="D110" s="25">
-        <v>9.89</v>
+        <v>12.39</v>
       </c>
       <c r="E110" s="21"/>
       <c r="F110" s="22"/>
@@ -5253,7 +5262,7 @@
       </c>
       <c r="C111" s="24"/>
       <c r="D111" s="25">
-        <v>4.6900000000000004</v>
+        <v>7.19</v>
       </c>
       <c r="E111" s="21"/>
       <c r="F111" s="22"/>
@@ -5283,7 +5292,7 @@
       </c>
       <c r="C112" s="19"/>
       <c r="D112" s="20">
-        <v>6.49</v>
+        <v>8.99</v>
       </c>
       <c r="E112" s="21"/>
       <c r="F112" s="17"/>
@@ -5313,7 +5322,7 @@
       </c>
       <c r="C113" s="24"/>
       <c r="D113" s="25">
-        <v>4.6500000000000004</v>
+        <v>7.15</v>
       </c>
       <c r="E113" s="21"/>
       <c r="F113" s="22"/>
@@ -5343,7 +5352,7 @@
       </c>
       <c r="C114" s="24"/>
       <c r="D114" s="25">
-        <v>6.45</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="E114" s="21"/>
       <c r="F114" s="22"/>
@@ -5373,7 +5382,7 @@
       </c>
       <c r="C115" s="24"/>
       <c r="D115" s="25">
-        <v>4.6900000000000004</v>
+        <v>7.19</v>
       </c>
       <c r="E115" s="21"/>
       <c r="F115" s="22"/>
@@ -5403,7 +5412,7 @@
       </c>
       <c r="C116" s="24"/>
       <c r="D116" s="25">
-        <v>6.49</v>
+        <v>8.99</v>
       </c>
       <c r="E116" s="21"/>
       <c r="F116" s="22"/>
@@ -5433,7 +5442,7 @@
       </c>
       <c r="C117" s="24"/>
       <c r="D117" s="25">
-        <v>4.6900000000000004</v>
+        <v>7.19</v>
       </c>
       <c r="E117" s="21"/>
       <c r="F117" s="22"/>
@@ -5463,7 +5472,7 @@
       </c>
       <c r="C118" s="24"/>
       <c r="D118" s="25">
-        <v>6.58</v>
+        <v>9.08</v>
       </c>
       <c r="E118" s="21"/>
       <c r="F118" s="22"/>
@@ -5493,7 +5502,7 @@
       </c>
       <c r="C119" s="24"/>
       <c r="D119" s="25">
-        <v>6.49</v>
+        <v>8.99</v>
       </c>
       <c r="E119" s="21"/>
       <c r="F119" s="22"/>
@@ -5523,7 +5532,7 @@
       </c>
       <c r="C120" s="24"/>
       <c r="D120" s="25">
-        <v>4.49</v>
+        <v>6.99</v>
       </c>
       <c r="E120" s="21"/>
       <c r="F120" s="22"/>
@@ -5553,7 +5562,7 @@
       </c>
       <c r="C121" s="24"/>
       <c r="D121" s="25">
-        <v>6.49</v>
+        <v>8.99</v>
       </c>
       <c r="E121" s="21"/>
       <c r="F121" s="22"/>
@@ -5583,7 +5592,7 @@
       </c>
       <c r="C122" s="24"/>
       <c r="D122" s="25">
-        <v>9.89</v>
+        <v>12.39</v>
       </c>
       <c r="E122" s="21"/>
       <c r="F122" s="22"/>
@@ -5610,9 +5619,7 @@
       <c r="A123" s="22"/>
       <c r="B123" s="27"/>
       <c r="C123" s="24"/>
-      <c r="D123" s="25" t="s">
-        <v>118</v>
-      </c>
+      <c r="D123" s="25"/>
       <c r="E123" s="21"/>
       <c r="F123" s="22"/>
       <c r="G123" s="22"/>
@@ -5637,11 +5644,11 @@
     <row r="124" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="22"/>
       <c r="B124" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C124" s="24"/>
       <c r="D124" s="25">
-        <v>4.68</v>
+        <v>7.18</v>
       </c>
       <c r="E124" s="21"/>
       <c r="F124" s="22"/>
@@ -5667,11 +5674,11 @@
     <row r="125" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="22"/>
       <c r="B125" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C125" s="24"/>
       <c r="D125" s="25">
-        <v>6.58</v>
+        <v>9.08</v>
       </c>
       <c r="E125" s="21"/>
       <c r="F125" s="22"/>
@@ -5697,11 +5704,11 @@
     <row r="126" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="22"/>
       <c r="B126" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C126" s="24"/>
       <c r="D126" s="25">
-        <v>9.89</v>
+        <v>12.39</v>
       </c>
       <c r="E126" s="21"/>
       <c r="F126" s="22"/>
@@ -5752,8 +5759,8 @@
     </row>
     <row r="128" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="22"/>
-      <c r="B128" s="26" t="s">
-        <v>122</v>
+      <c r="B128" s="61" t="s">
+        <v>121</v>
       </c>
       <c r="C128" s="24"/>
       <c r="D128" s="25"/>
@@ -5785,7 +5792,7 @@
       </c>
       <c r="C129" s="24"/>
       <c r="D129" s="25">
-        <v>2.59</v>
+        <v>5.09</v>
       </c>
       <c r="E129" s="21"/>
       <c r="F129" s="22"/>
@@ -5815,7 +5822,7 @@
       </c>
       <c r="C130" s="24"/>
       <c r="D130" s="25">
-        <v>3.59</v>
+        <v>6.09</v>
       </c>
       <c r="E130" s="21"/>
       <c r="F130" s="22"/>
@@ -5841,11 +5848,11 @@
     <row r="131" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="22"/>
       <c r="B131" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C131" s="24"/>
       <c r="D131" s="25">
-        <v>4.58</v>
+        <v>7.08</v>
       </c>
       <c r="E131" s="21"/>
       <c r="F131" s="22"/>
@@ -5871,11 +5878,11 @@
     <row r="132" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="22"/>
       <c r="B132" s="23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C132" s="24"/>
       <c r="D132" s="25">
-        <v>3.49</v>
+        <v>5.99</v>
       </c>
       <c r="E132" s="21"/>
       <c r="F132" s="22"/>
@@ -5901,11 +5908,11 @@
     <row r="133" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="22"/>
       <c r="B133" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C133" s="24"/>
       <c r="D133" s="25">
-        <v>3.49</v>
+        <v>5.99</v>
       </c>
       <c r="E133" s="21"/>
       <c r="F133" s="22"/>
@@ -5931,11 +5938,11 @@
     <row r="134" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="22"/>
       <c r="B134" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C134" s="24"/>
       <c r="D134" s="25">
-        <v>2.59</v>
+        <v>5.09</v>
       </c>
       <c r="E134" s="21"/>
       <c r="F134" s="22"/>
@@ -5961,11 +5968,11 @@
     <row r="135" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="22"/>
       <c r="B135" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C135" s="24"/>
       <c r="D135" s="25">
-        <v>3.49</v>
+        <v>5.99</v>
       </c>
       <c r="E135" s="21"/>
       <c r="F135" s="22"/>
@@ -5991,11 +5998,11 @@
     <row r="136" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="22"/>
       <c r="B136" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C136" s="24"/>
       <c r="D136" s="25">
-        <v>4.58</v>
+        <v>7.08</v>
       </c>
       <c r="E136" s="21"/>
       <c r="F136" s="22"/>
@@ -6021,11 +6028,11 @@
     <row r="137" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="22"/>
       <c r="B137" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C137" s="24"/>
       <c r="D137" s="25">
-        <v>4.3899999999999997</v>
+        <v>6.89</v>
       </c>
       <c r="E137" s="21"/>
       <c r="F137" s="22"/>
@@ -6051,11 +6058,11 @@
     <row r="138" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="22"/>
       <c r="B138" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C138" s="24"/>
       <c r="D138" s="25">
-        <v>4.3899999999999997</v>
+        <v>6.89</v>
       </c>
       <c r="E138" s="21"/>
       <c r="F138" s="22"/>
@@ -6081,11 +6088,11 @@
     <row r="139" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="22"/>
       <c r="B139" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C139" s="24"/>
       <c r="D139" s="25">
-        <v>3.59</v>
+        <v>6.09</v>
       </c>
       <c r="E139" s="21"/>
       <c r="F139" s="22"/>
@@ -6111,11 +6118,11 @@
     <row r="140" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="22"/>
       <c r="B140" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C140" s="24"/>
       <c r="D140" s="25">
-        <v>3.59</v>
+        <v>6.09</v>
       </c>
       <c r="E140" s="21"/>
       <c r="F140" s="22"/>
@@ -6141,11 +6148,11 @@
     <row r="141" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="22"/>
       <c r="B141" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C141" s="24"/>
       <c r="D141" s="25">
-        <v>3.49</v>
+        <v>5.99</v>
       </c>
       <c r="E141" s="21"/>
       <c r="F141" s="22"/>
@@ -6171,11 +6178,11 @@
     <row r="142" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="22"/>
       <c r="B142" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C142" s="24"/>
       <c r="D142" s="25">
-        <v>2.59</v>
+        <v>5.09</v>
       </c>
       <c r="E142" s="21"/>
       <c r="F142" s="22"/>
@@ -6201,11 +6208,11 @@
     <row r="143" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="22"/>
       <c r="B143" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C143" s="24"/>
       <c r="D143" s="25">
-        <v>3.59</v>
+        <v>6.09</v>
       </c>
       <c r="E143" s="21"/>
       <c r="F143" s="22"/>
@@ -6231,11 +6238,11 @@
     <row r="144" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="22"/>
       <c r="B144" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C144" s="24"/>
       <c r="D144" s="25">
-        <v>4.59</v>
+        <v>7.09</v>
       </c>
       <c r="E144" s="21"/>
       <c r="F144" s="22"/>
@@ -6261,11 +6268,11 @@
     <row r="145" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="22"/>
       <c r="B145" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C145" s="24"/>
       <c r="D145" s="25">
-        <v>3.49</v>
+        <v>5.99</v>
       </c>
       <c r="E145" s="21"/>
       <c r="F145" s="22"/>
@@ -6291,11 +6298,11 @@
     <row r="146" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="22"/>
       <c r="B146" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C146" s="24"/>
       <c r="D146" s="25">
-        <v>2.59</v>
+        <v>5.09</v>
       </c>
       <c r="E146" s="21"/>
       <c r="F146" s="22"/>
@@ -6321,11 +6328,11 @@
     <row r="147" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="22"/>
       <c r="B147" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C147" s="24"/>
       <c r="D147" s="25">
-        <v>3.49</v>
+        <v>5.99</v>
       </c>
       <c r="E147" s="21"/>
       <c r="F147" s="22"/>
@@ -6351,11 +6358,11 @@
     <row r="148" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="22"/>
       <c r="B148" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C148" s="24"/>
       <c r="D148" s="25">
-        <v>3.49</v>
+        <v>5.99</v>
       </c>
       <c r="E148" s="21"/>
       <c r="F148" s="22"/>
@@ -6381,11 +6388,11 @@
     <row r="149" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="22"/>
       <c r="B149" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C149" s="24"/>
       <c r="D149" s="25">
-        <v>4.49</v>
+        <v>6.99</v>
       </c>
       <c r="E149" s="21"/>
       <c r="F149" s="22"/>
@@ -6411,11 +6418,11 @@
     <row r="150" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="22"/>
       <c r="B150" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C150" s="24"/>
       <c r="D150" s="25">
-        <v>4.49</v>
+        <v>6.99</v>
       </c>
       <c r="E150" s="21"/>
       <c r="F150" s="22"/>
@@ -6441,11 +6448,11 @@
     <row r="151" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="17"/>
       <c r="B151" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C151" s="19"/>
       <c r="D151" s="20">
-        <v>2.59</v>
+        <v>5.09</v>
       </c>
       <c r="E151" s="21"/>
       <c r="F151" s="17"/>
@@ -6471,11 +6478,11 @@
     <row r="152" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="17"/>
       <c r="B152" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C152" s="19"/>
       <c r="D152" s="20">
-        <v>3.49</v>
+        <v>5.99</v>
       </c>
       <c r="E152" s="21"/>
       <c r="F152" s="17"/>
@@ -6501,11 +6508,11 @@
     <row r="153" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="17"/>
       <c r="B153" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C153" s="19"/>
       <c r="D153" s="20">
-        <v>4.49</v>
+        <v>6.99</v>
       </c>
       <c r="E153" s="21"/>
       <c r="F153" s="17"/>
@@ -6531,11 +6538,11 @@
     <row r="154" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="22"/>
       <c r="B154" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C154" s="24"/>
       <c r="D154" s="25">
-        <v>2.4900000000000002</v>
+        <v>4.99</v>
       </c>
       <c r="E154" s="21"/>
       <c r="F154" s="22"/>
@@ -6561,11 +6568,11 @@
     <row r="155" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="22"/>
       <c r="B155" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C155" s="24"/>
       <c r="D155" s="25">
-        <v>2.4900000000000002</v>
+        <v>4.99</v>
       </c>
       <c r="E155" s="21"/>
       <c r="F155" s="22"/>
@@ -6591,11 +6598,11 @@
     <row r="156" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="22"/>
       <c r="B156" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C156" s="24"/>
       <c r="D156" s="25">
-        <v>3.49</v>
+        <v>5.99</v>
       </c>
       <c r="E156" s="21"/>
       <c r="F156" s="22"/>
@@ -6621,11 +6628,11 @@
     <row r="157" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="22"/>
       <c r="B157" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C157" s="24"/>
       <c r="D157" s="25">
-        <v>2.4900000000000002</v>
+        <v>4.99</v>
       </c>
       <c r="E157" s="21"/>
       <c r="F157" s="22"/>
@@ -6651,11 +6658,11 @@
     <row r="158" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="22"/>
       <c r="B158" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C158" s="24"/>
       <c r="D158" s="25">
-        <v>2.4900000000000002</v>
+        <v>4.99</v>
       </c>
       <c r="E158" s="21"/>
       <c r="F158" s="22"/>
@@ -6681,11 +6688,11 @@
     <row r="159" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="22"/>
       <c r="B159" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C159" s="24"/>
       <c r="D159" s="25">
-        <v>3.49</v>
+        <v>5.99</v>
       </c>
       <c r="E159" s="21"/>
       <c r="F159" s="22"/>
@@ -6711,11 +6718,11 @@
     <row r="160" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="22"/>
       <c r="B160" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C160" s="24"/>
       <c r="D160" s="25">
-        <v>2.4900000000000002</v>
+        <v>4.99</v>
       </c>
       <c r="E160" s="21"/>
       <c r="F160" s="22"/>
@@ -6741,11 +6748,11 @@
     <row r="161" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="22"/>
       <c r="B161" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C161" s="24"/>
       <c r="D161" s="25">
-        <v>2.4900000000000002</v>
+        <v>4.99</v>
       </c>
       <c r="E161" s="21"/>
       <c r="F161" s="22"/>
@@ -6771,11 +6778,11 @@
     <row r="162" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="22"/>
       <c r="B162" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C162" s="24"/>
       <c r="D162" s="25">
-        <v>3.49</v>
+        <v>5.99</v>
       </c>
       <c r="E162" s="21"/>
       <c r="F162" s="22"/>
@@ -6801,11 +6808,11 @@
     <row r="163" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="17"/>
       <c r="B163" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C163" s="19"/>
       <c r="D163" s="20">
-        <v>3.89</v>
+        <v>6.39</v>
       </c>
       <c r="E163" s="21"/>
       <c r="F163" s="17"/>
@@ -6831,11 +6838,11 @@
     <row r="164" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="17"/>
       <c r="B164" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C164" s="19"/>
       <c r="D164" s="20">
-        <v>2.59</v>
+        <v>5.09</v>
       </c>
       <c r="E164" s="21"/>
       <c r="F164" s="17"/>
@@ -6861,11 +6868,11 @@
     <row r="165" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="17"/>
       <c r="B165" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C165" s="19"/>
       <c r="D165" s="20">
-        <v>3.59</v>
+        <v>6.09</v>
       </c>
       <c r="E165" s="21"/>
       <c r="F165" s="17"/>
@@ -6916,8 +6923,8 @@
     </row>
     <row r="167" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="22"/>
-      <c r="B167" s="26" t="s">
-        <v>158</v>
+      <c r="B167" s="61" t="s">
+        <v>157</v>
       </c>
       <c r="C167" s="24"/>
       <c r="D167" s="25"/>
@@ -6945,11 +6952,11 @@
     <row r="168" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="22"/>
       <c r="B168" s="23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C168" s="24"/>
       <c r="D168" s="25">
-        <v>3.29</v>
+        <v>5.79</v>
       </c>
       <c r="E168" s="21"/>
       <c r="F168" s="22"/>
@@ -6975,11 +6982,11 @@
     <row r="169" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="22"/>
       <c r="B169" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C169" s="24"/>
       <c r="D169" s="25">
-        <v>3.29</v>
+        <v>5.79</v>
       </c>
       <c r="E169" s="21"/>
       <c r="F169" s="22"/>
@@ -7005,11 +7012,11 @@
     <row r="170" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="22"/>
       <c r="B170" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C170" s="24"/>
       <c r="D170" s="25">
-        <v>3.29</v>
+        <v>5.79</v>
       </c>
       <c r="E170" s="21"/>
       <c r="F170" s="22"/>
@@ -7035,11 +7042,11 @@
     <row r="171" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="22"/>
       <c r="B171" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C171" s="24"/>
       <c r="D171" s="25">
-        <v>3.29</v>
+        <v>5.79</v>
       </c>
       <c r="E171" s="21"/>
       <c r="F171" s="22"/>
@@ -7065,11 +7072,11 @@
     <row r="172" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="22"/>
       <c r="B172" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C172" s="24"/>
       <c r="D172" s="25">
-        <v>2.79</v>
+        <v>5.29</v>
       </c>
       <c r="E172" s="21"/>
       <c r="F172" s="22"/>
@@ -7095,11 +7102,11 @@
     <row r="173" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="22"/>
       <c r="B173" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C173" s="24"/>
       <c r="D173" s="25">
-        <v>3.89</v>
+        <v>6.39</v>
       </c>
       <c r="E173" s="21"/>
       <c r="F173" s="22"/>
@@ -7150,8 +7157,8 @@
     </row>
     <row r="175" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="22"/>
-      <c r="B175" s="26" t="s">
-        <v>165</v>
+      <c r="B175" s="61" t="s">
+        <v>164</v>
       </c>
       <c r="C175" s="24"/>
       <c r="D175" s="25"/>
@@ -7179,11 +7186,11 @@
     <row r="176" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="22"/>
       <c r="B176" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C176" s="24"/>
       <c r="D176" s="25">
-        <v>4.8899999999999997</v>
+        <v>7.39</v>
       </c>
       <c r="E176" s="21"/>
       <c r="F176" s="22"/>
@@ -7209,11 +7216,11 @@
     <row r="177" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="22"/>
       <c r="B177" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C177" s="24"/>
       <c r="D177" s="25">
-        <v>5.49</v>
+        <v>7.99</v>
       </c>
       <c r="E177" s="21"/>
       <c r="F177" s="22"/>
@@ -7239,11 +7246,11 @@
     <row r="178" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="22"/>
       <c r="B178" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C178" s="24"/>
       <c r="D178" s="25">
-        <v>6.65</v>
+        <v>9.15</v>
       </c>
       <c r="E178" s="21"/>
       <c r="F178" s="22"/>
@@ -7269,11 +7276,11 @@
     <row r="179" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="22"/>
       <c r="B179" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C179" s="24"/>
       <c r="D179" s="25">
-        <v>9.89</v>
+        <v>12.39</v>
       </c>
       <c r="E179" s="21"/>
       <c r="F179" s="22"/>
@@ -7299,11 +7306,11 @@
     <row r="180" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="17"/>
       <c r="B180" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C180" s="19"/>
       <c r="D180" s="20">
-        <v>4.49</v>
+        <v>6.99</v>
       </c>
       <c r="E180" s="21"/>
       <c r="F180" s="17"/>
@@ -7329,11 +7336,11 @@
     <row r="181" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="22"/>
       <c r="B181" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C181" s="24"/>
       <c r="D181" s="25">
-        <v>3.89</v>
+        <v>6.39</v>
       </c>
       <c r="E181" s="21"/>
       <c r="F181" s="22"/>
@@ -7359,11 +7366,11 @@
     <row r="182" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="22"/>
       <c r="B182" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C182" s="24"/>
       <c r="D182" s="25">
-        <v>5.65</v>
+        <v>8.15</v>
       </c>
       <c r="E182" s="21"/>
       <c r="F182" s="22"/>
@@ -7389,11 +7396,11 @@
     <row r="183" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="22"/>
       <c r="B183" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C183" s="24"/>
       <c r="D183" s="25">
-        <v>4.29</v>
+        <v>6.79</v>
       </c>
       <c r="E183" s="21"/>
       <c r="F183" s="22"/>
@@ -7419,11 +7426,11 @@
     <row r="184" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="22"/>
       <c r="B184" s="23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C184" s="24"/>
       <c r="D184" s="25">
-        <v>5.49</v>
+        <v>7.99</v>
       </c>
       <c r="E184" s="21"/>
       <c r="F184" s="22"/>
@@ -7449,11 +7456,11 @@
     <row r="185" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="22"/>
       <c r="B185" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C185" s="24"/>
       <c r="D185" s="25">
-        <v>6.69</v>
+        <v>9.19</v>
       </c>
       <c r="E185" s="21"/>
       <c r="F185" s="22"/>
@@ -7479,11 +7486,11 @@
     <row r="186" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="17"/>
       <c r="B186" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C186" s="19"/>
       <c r="D186" s="20">
-        <v>3.49</v>
+        <v>5.99</v>
       </c>
       <c r="E186" s="21"/>
       <c r="F186" s="17"/>
@@ -7509,11 +7516,11 @@
     <row r="187" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="22"/>
       <c r="B187" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C187" s="24"/>
       <c r="D187" s="25">
-        <v>3.49</v>
+        <v>5.99</v>
       </c>
       <c r="E187" s="21"/>
       <c r="F187" s="22"/>
@@ -7539,11 +7546,11 @@
     <row r="188" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="22"/>
       <c r="B188" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C188" s="24"/>
       <c r="D188" s="25">
-        <v>5.69</v>
+        <v>8.19</v>
       </c>
       <c r="E188" s="21"/>
       <c r="F188" s="22"/>
@@ -7569,11 +7576,11 @@
     <row r="189" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="22"/>
       <c r="B189" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C189" s="24"/>
       <c r="D189" s="25">
-        <v>6.98</v>
+        <v>9.48</v>
       </c>
       <c r="E189" s="21"/>
       <c r="F189" s="22"/>
@@ -7625,7 +7632,7 @@
     <row r="191" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="22"/>
       <c r="B191" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C191" s="24"/>
       <c r="D191" s="25"/>
@@ -7653,11 +7660,11 @@
     <row r="192" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="22"/>
       <c r="B192" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C192" s="24"/>
       <c r="D192" s="20">
-        <v>5.98</v>
+        <v>8.48</v>
       </c>
       <c r="E192" s="21"/>
       <c r="F192" s="22"/>
@@ -7683,11 +7690,11 @@
     <row r="193" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="22"/>
       <c r="B193" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C193" s="24"/>
       <c r="D193" s="25">
-        <v>3.89</v>
+        <v>6.39</v>
       </c>
       <c r="E193" s="21"/>
       <c r="F193" s="22"/>
@@ -7713,11 +7720,11 @@
     <row r="194" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="22"/>
       <c r="B194" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C194" s="24"/>
       <c r="D194" s="25">
-        <v>2.59</v>
+        <v>5.09</v>
       </c>
       <c r="E194" s="21"/>
       <c r="F194" s="22"/>
@@ -7743,12 +7750,10 @@
     <row r="195" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="22"/>
       <c r="B195" s="23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C195" s="24"/>
-      <c r="D195" s="25" t="s">
-        <v>118</v>
-      </c>
+      <c r="D195" s="25"/>
       <c r="E195" s="21"/>
       <c r="F195" s="22"/>
       <c r="G195" s="22"/>
@@ -7773,11 +7778,11 @@
     <row r="196" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="17"/>
       <c r="B196" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C196" s="19"/>
       <c r="D196" s="20">
-        <v>2.69</v>
+        <v>5.19</v>
       </c>
       <c r="E196" s="21"/>
       <c r="F196" s="17"/>
@@ -7803,11 +7808,11 @@
     <row r="197" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="22"/>
       <c r="B197" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C197" s="24"/>
       <c r="D197" s="25">
-        <v>2.59</v>
+        <v>5.09</v>
       </c>
       <c r="E197" s="21"/>
       <c r="F197" s="22"/>
@@ -7833,11 +7838,11 @@
     <row r="198" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="22"/>
       <c r="B198" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C198" s="24"/>
       <c r="D198" s="25">
-        <v>2.99</v>
+        <v>5.49</v>
       </c>
       <c r="E198" s="21"/>
       <c r="F198" s="22"/>
@@ -7863,11 +7868,11 @@
     <row r="199" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="22"/>
       <c r="B199" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C199" s="24"/>
       <c r="D199" s="25">
-        <v>2.79</v>
+        <v>5.29</v>
       </c>
       <c r="E199" s="21"/>
       <c r="F199" s="22"/>
@@ -7893,11 +7898,11 @@
     <row r="200" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="22"/>
       <c r="B200" s="23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C200" s="24"/>
       <c r="D200" s="25">
-        <v>2.79</v>
+        <v>5.29</v>
       </c>
       <c r="E200" s="21"/>
       <c r="F200" s="22"/>
@@ -7923,11 +7928,11 @@
     <row r="201" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="22"/>
       <c r="B201" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C201" s="24"/>
       <c r="D201" s="25">
-        <v>2.79</v>
+        <v>5.29</v>
       </c>
       <c r="E201" s="21"/>
       <c r="F201" s="22"/>
@@ -7953,11 +7958,11 @@
     <row r="202" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="17"/>
       <c r="B202" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C202" s="19"/>
       <c r="D202" s="20">
-        <v>2.79</v>
+        <v>5.29</v>
       </c>
       <c r="E202" s="21"/>
       <c r="F202" s="17"/>
@@ -7983,11 +7988,11 @@
     <row r="203" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="22"/>
       <c r="B203" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C203" s="24"/>
       <c r="D203" s="25">
-        <v>3.79</v>
+        <v>6.29</v>
       </c>
       <c r="E203" s="21"/>
       <c r="F203" s="22"/>
@@ -8013,11 +8018,11 @@
     <row r="204" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="22"/>
       <c r="B204" s="23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C204" s="24"/>
       <c r="D204" s="25">
-        <v>4.79</v>
+        <v>7.29</v>
       </c>
       <c r="E204" s="21"/>
       <c r="F204" s="22"/>
@@ -8043,11 +8048,11 @@
     <row r="205" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="22"/>
       <c r="B205" s="23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C205" s="24"/>
       <c r="D205" s="25">
-        <v>7.99</v>
+        <v>10.49</v>
       </c>
       <c r="E205" s="21"/>
       <c r="F205" s="22"/>
@@ -8073,11 +8078,11 @@
     <row r="206" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="22"/>
       <c r="B206" s="23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C206" s="24"/>
       <c r="D206" s="25">
-        <v>4.79</v>
+        <v>7.29</v>
       </c>
       <c r="E206" s="21"/>
       <c r="F206" s="22"/>
@@ -8103,11 +8108,11 @@
     <row r="207" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="22"/>
       <c r="B207" s="23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C207" s="24"/>
       <c r="D207" s="25">
-        <v>3.89</v>
+        <v>6.39</v>
       </c>
       <c r="E207" s="21"/>
       <c r="F207" s="22"/>
@@ -8133,11 +8138,11 @@
     <row r="208" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="17"/>
       <c r="B208" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C208" s="19"/>
       <c r="D208" s="20">
-        <v>2.79</v>
+        <v>5.29</v>
       </c>
       <c r="E208" s="21"/>
       <c r="F208" s="17"/>
@@ -8163,11 +8168,11 @@
     <row r="209" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="22"/>
       <c r="B209" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C209" s="24"/>
       <c r="D209" s="25">
-        <v>1.99</v>
+        <v>4.49</v>
       </c>
       <c r="E209" s="21"/>
       <c r="F209" s="22"/>
@@ -8193,11 +8198,11 @@
     <row r="210" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="22"/>
       <c r="B210" s="23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C210" s="24"/>
       <c r="D210" s="25">
-        <v>10.99</v>
+        <v>15.99</v>
       </c>
       <c r="E210" s="21"/>
       <c r="F210" s="22"/>
@@ -8223,11 +8228,11 @@
     <row r="211" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="22"/>
       <c r="B211" s="23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C211" s="24"/>
       <c r="D211" s="25">
-        <v>2.4900000000000002</v>
+        <v>4.99</v>
       </c>
       <c r="E211" s="21"/>
       <c r="F211" s="22"/>
@@ -8253,11 +8258,11 @@
     <row r="212" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="22"/>
       <c r="B212" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C212" s="24"/>
       <c r="D212" s="25">
-        <v>2.4900000000000002</v>
+        <v>4.99</v>
       </c>
       <c r="E212" s="21"/>
       <c r="F212" s="22"/>
@@ -8283,11 +8288,11 @@
     <row r="213" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="22"/>
       <c r="B213" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C213" s="24"/>
       <c r="D213" s="25">
-        <v>2.4900000000000002</v>
+        <v>4.99</v>
       </c>
       <c r="E213" s="21"/>
       <c r="F213" s="22"/>
@@ -8313,11 +8318,11 @@
     <row r="214" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="22"/>
       <c r="B214" s="23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C214" s="24"/>
       <c r="D214" s="25">
-        <v>2.4900000000000002</v>
+        <v>4.99</v>
       </c>
       <c r="E214" s="21"/>
       <c r="F214" s="22"/>
@@ -8343,11 +8348,11 @@
     <row r="215" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="17"/>
       <c r="B215" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C215" s="19"/>
       <c r="D215" s="20">
-        <v>2.89</v>
+        <v>5.39</v>
       </c>
       <c r="E215" s="21"/>
       <c r="F215" s="17"/>
@@ -8373,11 +8378,11 @@
     <row r="216" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="17"/>
       <c r="B216" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C216" s="19"/>
       <c r="D216" s="20">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="E216" s="21"/>
       <c r="F216" s="17"/>
@@ -8403,11 +8408,11 @@
     <row r="217" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="17"/>
       <c r="B217" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C217" s="19"/>
       <c r="D217" s="20">
-        <v>6.59</v>
+        <v>9.09</v>
       </c>
       <c r="E217" s="21"/>
       <c r="F217" s="17"/>
@@ -8458,8 +8463,8 @@
     </row>
     <row r="219" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="17"/>
-      <c r="B219" s="26" t="s">
-        <v>207</v>
+      <c r="B219" s="61" t="s">
+        <v>206</v>
       </c>
       <c r="C219" s="24"/>
       <c r="D219" s="25"/>
@@ -8487,11 +8492,11 @@
     <row r="220" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="17"/>
       <c r="B220" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C220" s="24"/>
       <c r="D220" s="25">
-        <v>2.4900000000000002</v>
+        <v>4.99</v>
       </c>
       <c r="E220" s="21"/>
       <c r="F220" s="17"/>
@@ -8517,11 +8522,11 @@
     <row r="221" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="17"/>
       <c r="B221" s="23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C221" s="24"/>
       <c r="D221" s="25">
-        <v>2.4900000000000002</v>
+        <v>4.99</v>
       </c>
       <c r="E221" s="21"/>
       <c r="F221" s="17"/>
@@ -8547,11 +8552,11 @@
     <row r="222" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="17"/>
       <c r="B222" s="23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C222" s="24"/>
       <c r="D222" s="25">
-        <v>2.4900000000000002</v>
+        <v>4.99</v>
       </c>
       <c r="E222" s="21"/>
       <c r="F222" s="17"/>
@@ -8577,11 +8582,11 @@
     <row r="223" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="17"/>
       <c r="B223" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C223" s="24"/>
       <c r="D223" s="25">
-        <v>2.4900000000000002</v>
+        <v>4.99</v>
       </c>
       <c r="E223" s="21"/>
       <c r="F223" s="17"/>
@@ -8611,7 +8616,7 @@
       </c>
       <c r="C224" s="24"/>
       <c r="D224" s="25">
-        <v>2.69</v>
+        <v>5.19</v>
       </c>
       <c r="E224" s="21"/>
       <c r="F224" s="17"/>
@@ -8662,8 +8667,8 @@
     </row>
     <row r="226" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="22"/>
-      <c r="B226" s="26" t="s">
-        <v>212</v>
+      <c r="B226" s="61" t="s">
+        <v>211</v>
       </c>
       <c r="C226" s="24"/>
       <c r="D226" s="25"/>
@@ -8691,7 +8696,7 @@
     <row r="227" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="22"/>
       <c r="B227" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C227" s="24"/>
       <c r="D227" s="25">
@@ -8721,7 +8726,7 @@
     <row r="228" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="22"/>
       <c r="B228" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C228" s="24"/>
       <c r="D228" s="25">
@@ -8751,7 +8756,7 @@
     <row r="229" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="22"/>
       <c r="B229" s="23" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C229" s="24"/>
       <c r="D229" s="25">
@@ -8807,7 +8812,7 @@
     <row r="231" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="22"/>
       <c r="B231" s="26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C231" s="24"/>
       <c r="D231" s="25"/>
@@ -8835,11 +8840,11 @@
     <row r="232" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="17"/>
       <c r="B232" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C232" s="19"/>
       <c r="D232" s="20">
-        <v>14.98</v>
+        <v>19.89</v>
       </c>
       <c r="E232" s="21"/>
       <c r="F232" s="17"/>
@@ -8865,11 +8870,11 @@
     <row r="233" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="17"/>
       <c r="B233" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C233" s="19"/>
       <c r="D233" s="20">
-        <v>19.98</v>
+        <v>19.89</v>
       </c>
       <c r="E233" s="21"/>
       <c r="F233" s="17"/>
@@ -8895,11 +8900,11 @@
     <row r="234" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="17"/>
       <c r="B234" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C234" s="19"/>
       <c r="D234" s="20">
-        <v>17.98</v>
+        <v>16.95</v>
       </c>
       <c r="E234" s="21"/>
       <c r="F234" s="17"/>
@@ -8925,11 +8930,11 @@
     <row r="235" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="17"/>
       <c r="B235" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C235" s="19"/>
       <c r="D235" s="20">
-        <v>18.98</v>
+        <v>19.98</v>
       </c>
       <c r="E235" s="21"/>
       <c r="F235" s="17"/>
@@ -8981,7 +8986,7 @@
     <row r="237" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="22"/>
       <c r="B237" s="26" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C237" s="24"/>
       <c r="D237" s="25"/>
@@ -9009,11 +9014,11 @@
     <row r="238" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="22"/>
       <c r="B238" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C238" s="24"/>
       <c r="D238" s="25">
-        <v>10.98</v>
+        <v>15.98</v>
       </c>
       <c r="E238" s="21"/>
       <c r="F238" s="22"/>
@@ -9039,11 +9044,11 @@
     <row r="239" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="22"/>
       <c r="B239" s="23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C239" s="24"/>
       <c r="D239" s="25">
-        <v>10.98</v>
+        <v>15.98</v>
       </c>
       <c r="E239" s="21"/>
       <c r="F239" s="22"/>
@@ -9069,11 +9074,11 @@
     <row r="240" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="22"/>
       <c r="B240" s="23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C240" s="24"/>
       <c r="D240" s="25">
-        <v>10.98</v>
+        <v>15.98</v>
       </c>
       <c r="E240" s="21"/>
       <c r="F240" s="22"/>
@@ -9099,11 +9104,11 @@
     <row r="241" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="17"/>
       <c r="B241" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C241" s="19"/>
       <c r="D241" s="20">
-        <v>12.98</v>
+        <v>17.98</v>
       </c>
       <c r="E241" s="21"/>
       <c r="F241" s="17"/>
@@ -9155,7 +9160,7 @@
     <row r="243" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="22"/>
       <c r="B243" s="26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C243" s="24"/>
       <c r="D243" s="25"/>
@@ -9183,11 +9188,11 @@
     <row r="244" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="22"/>
       <c r="B244" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C244" s="24"/>
       <c r="D244" s="25">
-        <v>6.59</v>
+        <v>9.09</v>
       </c>
       <c r="E244" s="21"/>
       <c r="F244" s="22"/>
@@ -9213,11 +9218,11 @@
     <row r="245" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="17"/>
       <c r="B245" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C245" s="19"/>
       <c r="D245" s="20">
-        <v>6.59</v>
+        <v>9.09</v>
       </c>
       <c r="E245" s="21"/>
       <c r="F245" s="17"/>
@@ -9269,7 +9274,7 @@
     <row r="247" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="22"/>
       <c r="B247" s="26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C247" s="24"/>
       <c r="D247" s="25"/>
@@ -9297,11 +9302,11 @@
     <row r="248" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="22"/>
       <c r="B248" s="23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C248" s="24"/>
       <c r="D248" s="25">
-        <v>38.979999999999997</v>
+        <v>43.98</v>
       </c>
       <c r="E248" s="21"/>
       <c r="F248" s="22"/>
@@ -9327,11 +9332,11 @@
     <row r="249" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="22"/>
       <c r="B249" s="23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C249" s="24"/>
       <c r="D249" s="25">
-        <v>4.87</v>
+        <v>7.37</v>
       </c>
       <c r="E249" s="21"/>
       <c r="F249" s="22"/>
@@ -9357,11 +9362,11 @@
     <row r="250" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="22"/>
       <c r="B250" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C250" s="19"/>
       <c r="D250" s="20">
-        <v>15.89</v>
+        <v>20.89</v>
       </c>
       <c r="E250" s="21"/>
       <c r="F250" s="22"/>
@@ -9387,11 +9392,11 @@
     <row r="251" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="22"/>
       <c r="B251" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C251" s="24"/>
       <c r="D251" s="25">
-        <v>29.98</v>
+        <v>34.979999999999997</v>
       </c>
       <c r="E251" s="21"/>
       <c r="F251" s="22"/>
@@ -9417,11 +9422,11 @@
     <row r="252" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="17"/>
       <c r="B252" s="23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C252" s="24"/>
       <c r="D252" s="25">
-        <v>3.98</v>
+        <v>6.48</v>
       </c>
       <c r="E252" s="21"/>
       <c r="F252" s="17"/>
@@ -9447,11 +9452,11 @@
     <row r="253" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="17"/>
       <c r="B253" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C253" s="19"/>
       <c r="D253" s="20">
-        <v>13.89</v>
+        <v>18.89</v>
       </c>
       <c r="E253" s="21"/>
       <c r="F253" s="17"/>
@@ -9581,7 +9586,7 @@
     <row r="258" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="22"/>
       <c r="B258" s="23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C258" s="24"/>
       <c r="D258" s="25">
@@ -9610,12 +9615,12 @@
     </row>
     <row r="259" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A259" s="22"/>
-      <c r="B259" s="28" t="s">
-        <v>237</v>
-      </c>
-      <c r="C259" s="29"/>
-      <c r="D259" s="30"/>
-      <c r="E259" s="31"/>
+      <c r="B259" s="62" t="s">
+        <v>236</v>
+      </c>
+      <c r="C259" s="28"/>
+      <c r="D259" s="29"/>
+      <c r="E259" s="30"/>
       <c r="F259" s="22"/>
       <c r="G259" s="22"/>
       <c r="H259" s="22"/>
@@ -9638,10 +9643,10 @@
     </row>
     <row r="260" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="22"/>
-      <c r="B260" s="32"/>
-      <c r="C260" s="33"/>
-      <c r="D260" s="34"/>
-      <c r="E260" s="35"/>
+      <c r="B260" s="31"/>
+      <c r="C260" s="32"/>
+      <c r="D260" s="33"/>
+      <c r="E260" s="34"/>
       <c r="F260" s="22"/>
       <c r="G260" s="22"/>
       <c r="H260" s="22"/>
@@ -9665,11 +9670,11 @@
     <row r="261" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="17"/>
       <c r="B261" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C261" s="19"/>
       <c r="D261" s="20">
-        <v>3.89</v>
+        <v>6.39</v>
       </c>
       <c r="E261" s="21"/>
       <c r="F261" s="17"/>
@@ -9695,11 +9700,11 @@
     <row r="262" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="17"/>
       <c r="B262" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C262" s="19"/>
       <c r="D262" s="20">
-        <v>4.87</v>
+        <v>7.37</v>
       </c>
       <c r="E262" s="21"/>
       <c r="F262" s="17"/>
@@ -9751,11 +9756,11 @@
     <row r="264" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="22"/>
       <c r="B264" s="23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C264" s="19"/>
       <c r="D264" s="25">
-        <v>3.98</v>
+        <v>6.48</v>
       </c>
       <c r="E264" s="21"/>
       <c r="F264" s="22"/>
@@ -9781,11 +9786,11 @@
     <row r="265" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="22"/>
       <c r="B265" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C265" s="19"/>
       <c r="D265" s="20">
-        <v>3.99</v>
+        <v>6.49</v>
       </c>
       <c r="E265" s="21"/>
       <c r="F265" s="22"/>
@@ -9811,11 +9816,11 @@
     <row r="266" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="22"/>
       <c r="B266" s="23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C266" s="24"/>
       <c r="D266" s="25">
-        <v>3.99</v>
+        <v>6.49</v>
       </c>
       <c r="E266" s="21"/>
       <c r="F266" s="22"/>
@@ -9841,11 +9846,11 @@
     <row r="267" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="22"/>
       <c r="B267" s="23" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C267" s="24"/>
       <c r="D267" s="25">
-        <v>3.98</v>
+        <v>6.48</v>
       </c>
       <c r="E267" s="21"/>
       <c r="F267" s="22"/>
@@ -9871,11 +9876,11 @@
     <row r="268" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="22"/>
       <c r="B268" s="23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C268" s="24"/>
       <c r="D268" s="25">
-        <v>3.98</v>
+        <v>6.48</v>
       </c>
       <c r="E268" s="21"/>
       <c r="F268" s="22"/>
@@ -9901,11 +9906,11 @@
     <row r="269" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="22"/>
       <c r="B269" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C269" s="24"/>
       <c r="D269" s="25">
-        <v>3.98</v>
+        <v>6.48</v>
       </c>
       <c r="E269" s="21"/>
       <c r="F269" s="22"/>
@@ -9931,11 +9936,11 @@
     <row r="270" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="22"/>
       <c r="B270" s="23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C270" s="24"/>
       <c r="D270" s="25">
-        <v>3.98</v>
+        <v>6.48</v>
       </c>
       <c r="E270" s="21"/>
       <c r="F270" s="22"/>
@@ -9961,11 +9966,11 @@
     <row r="271" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="22"/>
       <c r="B271" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C271" s="19"/>
       <c r="D271" s="20">
-        <v>3.98</v>
+        <v>6.48</v>
       </c>
       <c r="E271" s="21"/>
       <c r="F271" s="22"/>
@@ -9991,11 +9996,11 @@
     <row r="272" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="22"/>
       <c r="B272" s="18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C272" s="19"/>
       <c r="D272" s="20">
-        <v>3.98</v>
+        <v>6.48</v>
       </c>
       <c r="E272" s="21"/>
       <c r="F272" s="22"/>
@@ -10025,7 +10030,7 @@
       </c>
       <c r="C273" s="19"/>
       <c r="D273" s="20">
-        <v>2.89</v>
+        <v>5.39</v>
       </c>
       <c r="E273" s="21"/>
       <c r="F273" s="22"/>
@@ -10051,11 +10056,11 @@
     <row r="274" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="22"/>
       <c r="B274" s="23" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C274" s="24"/>
       <c r="D274" s="25">
-        <v>3.98</v>
+        <v>6.48</v>
       </c>
       <c r="E274" s="21"/>
       <c r="F274" s="22"/>
@@ -10081,11 +10086,11 @@
     <row r="275" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="22"/>
       <c r="B275" s="23" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C275" s="24"/>
       <c r="D275" s="25">
-        <v>3.98</v>
+        <v>6.48</v>
       </c>
       <c r="E275" s="21"/>
       <c r="F275" s="22"/>
@@ -10111,13 +10116,13 @@
     <row r="276" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="22"/>
       <c r="B276" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C276" s="24"/>
       <c r="D276" s="25">
-        <v>3.98</v>
-      </c>
-      <c r="E276" s="36"/>
+        <v>6.48</v>
+      </c>
+      <c r="E276" s="35"/>
       <c r="F276" s="22"/>
       <c r="G276" s="22"/>
       <c r="H276" s="22"/>
@@ -10141,11 +10146,11 @@
     <row r="277" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="22"/>
       <c r="B277" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C277" s="24"/>
       <c r="D277" s="25">
-        <v>3.98</v>
+        <v>6.48</v>
       </c>
       <c r="E277" s="21"/>
       <c r="F277" s="22"/>
@@ -10171,11 +10176,11 @@
     <row r="278" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="22"/>
       <c r="B278" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C278" s="19"/>
       <c r="D278" s="20">
-        <v>6.49</v>
+        <v>8.99</v>
       </c>
       <c r="E278" s="21"/>
       <c r="F278" s="22"/>
@@ -10201,11 +10206,11 @@
     <row r="279" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="22"/>
       <c r="B279" s="23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C279" s="24"/>
       <c r="D279" s="25">
-        <v>3.98</v>
+        <v>6.48</v>
       </c>
       <c r="E279" s="21"/>
       <c r="F279" s="22"/>
@@ -10235,9 +10240,9 @@
       </c>
       <c r="C280" s="24"/>
       <c r="D280" s="25">
-        <v>3.98</v>
-      </c>
-      <c r="E280" s="36"/>
+        <v>6.48</v>
+      </c>
+      <c r="E280" s="35"/>
       <c r="F280" s="22"/>
       <c r="G280" s="22"/>
       <c r="H280" s="22"/>
@@ -10261,11 +10266,11 @@
     <row r="281" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="22"/>
       <c r="B281" s="23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C281" s="24"/>
       <c r="D281" s="25">
-        <v>3.98</v>
+        <v>6.48</v>
       </c>
       <c r="E281" s="21"/>
       <c r="F281" s="22"/>
@@ -10291,11 +10296,11 @@
     <row r="282" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="22"/>
       <c r="B282" s="23" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C282" s="24"/>
       <c r="D282" s="25">
-        <v>4.59</v>
+        <v>7.09</v>
       </c>
       <c r="E282" s="21"/>
       <c r="F282" s="22"/>
@@ -10321,11 +10326,11 @@
     <row r="283" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="22"/>
       <c r="B283" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C283" s="19"/>
       <c r="D283" s="20">
-        <v>3.98</v>
+        <v>6.48</v>
       </c>
       <c r="E283" s="21"/>
       <c r="F283" s="22"/>
@@ -10351,11 +10356,11 @@
     <row r="284" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="22"/>
       <c r="B284" s="23" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C284" s="24"/>
       <c r="D284" s="25">
-        <v>3.98</v>
+        <v>6.48</v>
       </c>
       <c r="E284" s="21"/>
       <c r="F284" s="22"/>
@@ -10381,11 +10386,11 @@
     <row r="285" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="22"/>
       <c r="B285" s="23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C285" s="24"/>
       <c r="D285" s="25">
-        <v>3.98</v>
+        <v>6.48</v>
       </c>
       <c r="E285" s="21"/>
       <c r="F285" s="22"/>
@@ -10415,7 +10420,7 @@
       </c>
       <c r="C286" s="19"/>
       <c r="D286" s="20">
-        <v>3.98</v>
+        <v>6.48</v>
       </c>
       <c r="E286" s="21"/>
       <c r="F286" s="22"/>
@@ -10441,11 +10446,11 @@
     <row r="287" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="22"/>
       <c r="B287" s="23" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C287" s="24"/>
       <c r="D287" s="25">
-        <v>3.98</v>
+        <v>6.48</v>
       </c>
       <c r="E287" s="21"/>
       <c r="F287" s="22"/>
@@ -10475,7 +10480,7 @@
       </c>
       <c r="C288" s="24"/>
       <c r="D288" s="25">
-        <v>3.98</v>
+        <v>6.48</v>
       </c>
       <c r="E288" s="21"/>
       <c r="F288" s="22"/>
@@ -10505,7 +10510,7 @@
       </c>
       <c r="C289" s="24"/>
       <c r="D289" s="25">
-        <v>3.98</v>
+        <v>6.48</v>
       </c>
       <c r="E289" s="21"/>
       <c r="F289" s="22"/>
@@ -10531,11 +10536,11 @@
     <row r="290" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="22"/>
       <c r="B290" s="23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C290" s="24"/>
       <c r="D290" s="25">
-        <v>3.98</v>
+        <v>6.48</v>
       </c>
       <c r="E290" s="21"/>
       <c r="F290" s="22"/>
@@ -10586,12 +10591,12 @@
     </row>
     <row r="292" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="17"/>
-      <c r="B292" s="37" t="s">
-        <v>262</v>
-      </c>
-      <c r="C292" s="38"/>
-      <c r="D292" s="39">
-        <v>3.98</v>
+      <c r="B292" s="63" t="s">
+        <v>261</v>
+      </c>
+      <c r="C292" s="37"/>
+      <c r="D292" s="38">
+        <v>6.48</v>
       </c>
       <c r="E292" s="21"/>
       <c r="F292" s="17"/>
@@ -10617,11 +10622,11 @@
     <row r="293" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="22"/>
       <c r="B293" s="23" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C293" s="24"/>
       <c r="D293" s="25">
-        <v>3.98</v>
+        <v>6.48</v>
       </c>
       <c r="E293" s="21"/>
       <c r="F293" s="22"/>
@@ -10647,11 +10652,11 @@
     <row r="294" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="17"/>
       <c r="B294" s="23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C294" s="19"/>
       <c r="D294" s="25">
-        <v>4.9800000000000004</v>
+        <v>7.48</v>
       </c>
       <c r="E294" s="21"/>
       <c r="F294" s="17"/>
@@ -10677,11 +10682,11 @@
     <row r="295" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="22"/>
       <c r="B295" s="23" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C295" s="24"/>
       <c r="D295" s="25">
-        <v>3.98</v>
+        <v>6.48</v>
       </c>
       <c r="E295" s="21"/>
       <c r="F295" s="22"/>
@@ -10707,11 +10712,11 @@
     <row r="296" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="17"/>
       <c r="B296" s="23" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C296" s="19"/>
       <c r="D296" s="25">
-        <v>3.98</v>
+        <v>6.48</v>
       </c>
       <c r="E296" s="21"/>
       <c r="F296" s="17"/>
@@ -10737,11 +10742,11 @@
     <row r="297" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="17"/>
       <c r="B297" s="23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C297" s="19"/>
       <c r="D297" s="25">
-        <v>3.98</v>
+        <v>6.48</v>
       </c>
       <c r="E297" s="21"/>
       <c r="F297" s="17"/>
@@ -10767,11 +10772,11 @@
     <row r="298" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="22"/>
       <c r="B298" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C298" s="19"/>
       <c r="D298" s="20">
-        <v>3.98</v>
+        <v>6.48</v>
       </c>
       <c r="E298" s="21"/>
       <c r="F298" s="22"/>
@@ -10797,11 +10802,11 @@
     <row r="299" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="22"/>
       <c r="B299" s="23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C299" s="24"/>
       <c r="D299" s="25">
-        <v>3.98</v>
+        <v>6.48</v>
       </c>
       <c r="E299" s="21"/>
       <c r="F299" s="22"/>
@@ -10827,11 +10832,11 @@
     <row r="300" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="22"/>
       <c r="B300" s="23" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C300" s="24"/>
       <c r="D300" s="25">
-        <v>3.98</v>
+        <v>6.48</v>
       </c>
       <c r="E300" s="21"/>
       <c r="F300" s="22"/>
@@ -10857,11 +10862,11 @@
     <row r="301" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="22"/>
       <c r="B301" s="23" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C301" s="24"/>
       <c r="D301" s="25">
-        <v>3.98</v>
+        <v>6.48</v>
       </c>
       <c r="E301" s="21"/>
       <c r="F301" s="22"/>
@@ -10887,11 +10892,11 @@
     <row r="302" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="22"/>
       <c r="B302" s="23" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C302" s="24"/>
       <c r="D302" s="25">
-        <v>3.98</v>
+        <v>6.48</v>
       </c>
       <c r="E302" s="21"/>
       <c r="F302" s="22"/>
@@ -10917,11 +10922,11 @@
     <row r="303" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="17"/>
       <c r="B303" s="23" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C303" s="24"/>
       <c r="D303" s="25">
-        <v>3.98</v>
+        <v>6.48</v>
       </c>
       <c r="E303" s="21"/>
       <c r="F303" s="17"/>
@@ -10947,11 +10952,11 @@
     <row r="304" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="17"/>
       <c r="B304" s="23" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C304" s="19"/>
       <c r="D304" s="25">
-        <v>3.98</v>
+        <v>6.48</v>
       </c>
       <c r="E304" s="21"/>
       <c r="F304" s="17"/>
@@ -10977,11 +10982,11 @@
     <row r="305" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="22"/>
       <c r="B305" s="23" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C305" s="24"/>
       <c r="D305" s="25">
-        <v>3.98</v>
+        <v>6.48</v>
       </c>
       <c r="E305" s="21"/>
       <c r="F305" s="22"/>
@@ -11007,11 +11012,11 @@
     <row r="306" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="17"/>
       <c r="B306" s="23" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C306" s="19"/>
       <c r="D306" s="25">
-        <v>3.98</v>
+        <v>6.48</v>
       </c>
       <c r="E306" s="21"/>
       <c r="F306" s="17"/>
@@ -11037,11 +11042,11 @@
     <row r="307" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="22"/>
       <c r="B307" s="23" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C307" s="24"/>
       <c r="D307" s="25">
-        <v>3.98</v>
+        <v>6.48</v>
       </c>
       <c r="E307" s="21"/>
       <c r="F307" s="22"/>
@@ -11067,11 +11072,11 @@
     <row r="308" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="22"/>
       <c r="B308" s="23" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C308" s="24"/>
       <c r="D308" s="25">
-        <v>3.98</v>
+        <v>6.48</v>
       </c>
       <c r="E308" s="21"/>
       <c r="F308" s="22"/>
@@ -11097,11 +11102,11 @@
     <row r="309" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="22"/>
       <c r="B309" s="23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C309" s="24"/>
       <c r="D309" s="25">
-        <v>2.89</v>
+        <v>6.48</v>
       </c>
       <c r="E309" s="21"/>
       <c r="F309" s="22"/>
@@ -11127,11 +11132,11 @@
     <row r="310" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="17"/>
       <c r="B310" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C310" s="19"/>
       <c r="D310" s="20">
-        <v>3.98</v>
+        <v>5.39</v>
       </c>
       <c r="E310" s="21"/>
       <c r="F310" s="17"/>
@@ -11157,11 +11162,11 @@
     <row r="311" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="17"/>
       <c r="B311" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C311" s="19"/>
       <c r="D311" s="20">
-        <v>3.98</v>
+        <v>6.48</v>
       </c>
       <c r="E311" s="21"/>
       <c r="F311" s="17"/>
@@ -11212,12 +11217,12 @@
     </row>
     <row r="313" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="17"/>
-      <c r="B313" s="37" t="s">
-        <v>282</v>
+      <c r="B313" s="63" t="s">
+        <v>281</v>
       </c>
       <c r="C313" s="19"/>
       <c r="D313" s="20">
-        <v>7.89</v>
+        <v>10.39</v>
       </c>
       <c r="E313" s="21"/>
       <c r="F313" s="17"/>
@@ -11243,11 +11248,11 @@
     <row r="314" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="22"/>
       <c r="B314" s="23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C314" s="24"/>
       <c r="D314" s="25">
-        <v>7.89</v>
+        <v>10.39</v>
       </c>
       <c r="E314" s="21"/>
       <c r="F314" s="22"/>
@@ -11273,11 +11278,11 @@
     <row r="315" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="22"/>
       <c r="B315" s="23" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C315" s="24"/>
       <c r="D315" s="25">
-        <v>7.89</v>
+        <v>10.39</v>
       </c>
       <c r="E315" s="21"/>
       <c r="F315" s="22"/>
@@ -11303,11 +11308,11 @@
     <row r="316" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="22"/>
       <c r="B316" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C316" s="24"/>
       <c r="D316" s="25">
-        <v>7.89</v>
+        <v>10.39</v>
       </c>
       <c r="E316" s="21"/>
       <c r="F316" s="22"/>
@@ -11333,11 +11338,11 @@
     <row r="317" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="22"/>
       <c r="B317" s="23" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C317" s="24"/>
       <c r="D317" s="25">
-        <v>7.89</v>
+        <v>10.39</v>
       </c>
       <c r="E317" s="21"/>
       <c r="F317" s="22"/>
@@ -11363,11 +11368,11 @@
     <row r="318" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="22"/>
       <c r="B318" s="23" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C318" s="24"/>
       <c r="D318" s="25">
-        <v>7.89</v>
+        <v>10.39</v>
       </c>
       <c r="E318" s="21"/>
       <c r="F318" s="22"/>
@@ -11393,11 +11398,11 @@
     <row r="319" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="17"/>
       <c r="B319" s="23" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C319" s="19"/>
       <c r="D319" s="25">
-        <v>7.89</v>
+        <v>10.39</v>
       </c>
       <c r="E319" s="21"/>
       <c r="F319" s="17"/>
@@ -11423,11 +11428,11 @@
     <row r="320" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="22"/>
       <c r="B320" s="23" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C320" s="24"/>
       <c r="D320" s="25">
-        <v>7.89</v>
+        <v>10.39</v>
       </c>
       <c r="E320" s="21"/>
       <c r="F320" s="22"/>
@@ -11453,11 +11458,11 @@
     <row r="321" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="17"/>
       <c r="B321" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C321" s="19"/>
       <c r="D321" s="20">
-        <v>7.89</v>
+        <v>10.39</v>
       </c>
       <c r="E321" s="21"/>
       <c r="F321" s="17"/>
@@ -11483,11 +11488,11 @@
     <row r="322" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="17"/>
       <c r="B322" s="23" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C322" s="19"/>
       <c r="D322" s="25">
-        <v>7.89</v>
+        <v>10.39</v>
       </c>
       <c r="E322" s="21"/>
       <c r="F322" s="17"/>
@@ -11513,11 +11518,11 @@
     <row r="323" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="22"/>
       <c r="B323" s="23" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C323" s="24"/>
       <c r="D323" s="25">
-        <v>7.89</v>
+        <v>10.39</v>
       </c>
       <c r="E323" s="21"/>
       <c r="F323" s="22"/>
@@ -11543,11 +11548,11 @@
     <row r="324" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="22"/>
       <c r="B324" s="23" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C324" s="24"/>
       <c r="D324" s="25">
-        <v>7.89</v>
+        <v>10.39</v>
       </c>
       <c r="E324" s="21"/>
       <c r="F324" s="22"/>
@@ -11598,12 +11603,12 @@
     </row>
     <row r="326" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="17"/>
-      <c r="B326" s="37" t="s">
-        <v>294</v>
+      <c r="B326" s="63" t="s">
+        <v>293</v>
       </c>
       <c r="C326" s="19"/>
       <c r="D326" s="20">
-        <v>3.89</v>
+        <v>6.39</v>
       </c>
       <c r="E326" s="21"/>
       <c r="F326" s="17"/>
@@ -11629,11 +11634,11 @@
     <row r="327" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="17"/>
       <c r="B327" s="23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C327" s="19"/>
       <c r="D327" s="25">
-        <v>4.8899999999999997</v>
+        <v>7.39</v>
       </c>
       <c r="E327" s="21"/>
       <c r="F327" s="17"/>
@@ -11659,11 +11664,11 @@
     <row r="328" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="22"/>
       <c r="B328" s="23" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C328" s="24"/>
       <c r="D328" s="25">
-        <v>3.89</v>
+        <v>6.39</v>
       </c>
       <c r="E328" s="21"/>
       <c r="F328" s="22"/>
@@ -11689,11 +11694,11 @@
     <row r="329" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="22"/>
       <c r="B329" s="23" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C329" s="24"/>
       <c r="D329" s="25">
-        <v>3.89</v>
+        <v>6.39</v>
       </c>
       <c r="E329" s="21"/>
       <c r="F329" s="22"/>
@@ -11719,11 +11724,11 @@
     <row r="330" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="17"/>
       <c r="B330" s="23" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C330" s="19"/>
       <c r="D330" s="25">
-        <v>3.89</v>
+        <v>6.39</v>
       </c>
       <c r="E330" s="21"/>
       <c r="F330" s="17"/>
@@ -11749,11 +11754,11 @@
     <row r="331" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="17"/>
       <c r="B331" s="23" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C331" s="19"/>
       <c r="D331" s="25">
-        <v>3.89</v>
+        <v>6.39</v>
       </c>
       <c r="E331" s="21"/>
       <c r="F331" s="17"/>
@@ -11779,11 +11784,11 @@
     <row r="332" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="22"/>
       <c r="B332" s="23" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C332" s="24"/>
       <c r="D332" s="25">
-        <v>3.89</v>
+        <v>6.39</v>
       </c>
       <c r="E332" s="21"/>
       <c r="F332" s="22"/>
@@ -11809,11 +11814,11 @@
     <row r="333" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="22"/>
       <c r="B333" s="23" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C333" s="24"/>
       <c r="D333" s="25">
-        <v>3.89</v>
+        <v>6.39</v>
       </c>
       <c r="E333" s="21"/>
       <c r="F333" s="22"/>
@@ -11839,11 +11844,11 @@
     <row r="334" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="17"/>
       <c r="B334" s="18" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C334" s="19"/>
       <c r="D334" s="20">
-        <v>3.89</v>
+        <v>6.39</v>
       </c>
       <c r="E334" s="21"/>
       <c r="F334" s="17"/>
@@ -11894,8 +11899,8 @@
     </row>
     <row r="336" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="22"/>
-      <c r="B336" s="37" t="s">
-        <v>303</v>
+      <c r="B336" s="36" t="s">
+        <v>302</v>
       </c>
       <c r="C336" s="24"/>
       <c r="D336" s="25"/>
@@ -11922,14 +11927,14 @@
     </row>
     <row r="337" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="17"/>
-      <c r="B337" s="40" t="s">
-        <v>304</v>
-      </c>
-      <c r="C337" s="41"/>
-      <c r="D337" s="42">
-        <v>3.99</v>
-      </c>
-      <c r="E337" s="35"/>
+      <c r="B337" s="39" t="s">
+        <v>303</v>
+      </c>
+      <c r="C337" s="40"/>
+      <c r="D337" s="41">
+        <v>6.49</v>
+      </c>
+      <c r="E337" s="34"/>
       <c r="F337" s="17"/>
       <c r="G337" s="17"/>
       <c r="H337" s="17"/>
@@ -11953,11 +11958,11 @@
     <row r="338" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="17"/>
       <c r="B338" s="18" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C338" s="24"/>
       <c r="D338" s="20">
-        <v>13.98</v>
+        <v>18.98</v>
       </c>
       <c r="E338" s="21"/>
       <c r="F338" s="17"/>
@@ -11983,11 +11988,11 @@
     <row r="339" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="22"/>
       <c r="B339" s="18" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C339" s="19"/>
       <c r="D339" s="20">
-        <v>4.8899999999999997</v>
+        <v>7.39</v>
       </c>
       <c r="E339" s="21"/>
       <c r="F339" s="22"/>
@@ -12013,11 +12018,11 @@
     <row r="340" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="17"/>
       <c r="B340" s="18" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C340" s="19"/>
       <c r="D340" s="20">
-        <v>3.99</v>
+        <v>6.49</v>
       </c>
       <c r="E340" s="21"/>
       <c r="F340" s="17"/>
@@ -12043,11 +12048,11 @@
     <row r="341" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="17"/>
       <c r="B341" s="18" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C341" s="19"/>
       <c r="D341" s="20">
-        <v>3.99</v>
+        <v>6.49</v>
       </c>
       <c r="E341" s="21"/>
       <c r="F341" s="17"/>
@@ -12073,11 +12078,11 @@
     <row r="342" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="17"/>
       <c r="B342" s="18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C342" s="19"/>
       <c r="D342" s="20">
-        <v>3.19</v>
+        <v>5.69</v>
       </c>
       <c r="E342" s="21"/>
       <c r="F342" s="17"/>
@@ -12103,11 +12108,11 @@
     <row r="343" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="17"/>
       <c r="B343" s="18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C343" s="19"/>
       <c r="D343" s="20">
-        <v>2.99</v>
+        <v>5.49</v>
       </c>
       <c r="E343" s="21"/>
       <c r="F343" s="17"/>
@@ -12133,11 +12138,11 @@
     <row r="344" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="17"/>
       <c r="B344" s="18" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C344" s="19"/>
       <c r="D344" s="20">
-        <v>3.99</v>
+        <v>6.49</v>
       </c>
       <c r="E344" s="21"/>
       <c r="F344" s="17"/>
@@ -12163,11 +12168,11 @@
     <row r="345" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="17"/>
       <c r="B345" s="18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C345" s="19"/>
       <c r="D345" s="20">
-        <v>3.99</v>
+        <v>6.49</v>
       </c>
       <c r="E345" s="21"/>
       <c r="F345" s="17"/>
@@ -12193,11 +12198,11 @@
     <row r="346" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="17"/>
       <c r="B346" s="18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C346" s="19"/>
       <c r="D346" s="20">
-        <v>4.8899999999999997</v>
+        <v>7.39</v>
       </c>
       <c r="E346" s="21"/>
       <c r="F346" s="17"/>
@@ -12223,11 +12228,11 @@
     <row r="347" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="17"/>
       <c r="B347" s="18" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C347" s="19"/>
       <c r="D347" s="20">
-        <v>3.99</v>
+        <v>6.49</v>
       </c>
       <c r="E347" s="21"/>
       <c r="F347" s="17"/>
@@ -12253,11 +12258,11 @@
     <row r="348" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="17"/>
       <c r="B348" s="18" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C348" s="19"/>
       <c r="D348" s="20">
-        <v>3.99</v>
+        <v>6.49</v>
       </c>
       <c r="E348" s="21"/>
       <c r="F348" s="17"/>
@@ -12308,8 +12313,8 @@
     </row>
     <row r="350" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="22"/>
-      <c r="B350" s="26" t="s">
-        <v>316</v>
+      <c r="B350" s="61" t="s">
+        <v>315</v>
       </c>
       <c r="C350" s="24"/>
       <c r="D350" s="20"/>
@@ -12337,11 +12342,11 @@
     <row r="351" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="17"/>
       <c r="B351" s="23" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C351" s="24"/>
       <c r="D351" s="25">
-        <v>3.99</v>
+        <v>6.49</v>
       </c>
       <c r="E351" s="21"/>
       <c r="F351" s="17"/>
@@ -12367,11 +12372,11 @@
     <row r="352" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="17"/>
       <c r="B352" s="23" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C352" s="24"/>
       <c r="D352" s="25">
-        <v>4.59</v>
+        <v>7.09</v>
       </c>
       <c r="E352" s="21"/>
       <c r="F352" s="17"/>
@@ -12397,11 +12402,11 @@
     <row r="353" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="17"/>
       <c r="B353" s="23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C353" s="24"/>
       <c r="D353" s="25">
-        <v>3.99</v>
+        <v>6.49</v>
       </c>
       <c r="E353" s="21"/>
       <c r="F353" s="17"/>
@@ -12427,11 +12432,11 @@
     <row r="354" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="17"/>
       <c r="B354" s="23" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C354" s="24"/>
       <c r="D354" s="25">
-        <v>3.99</v>
+        <v>6.49</v>
       </c>
       <c r="E354" s="21"/>
       <c r="F354" s="17"/>
@@ -12457,11 +12462,11 @@
     <row r="355" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="17"/>
       <c r="B355" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C355" s="24"/>
       <c r="D355" s="25">
-        <v>3.99</v>
+        <v>6.49</v>
       </c>
       <c r="E355" s="21"/>
       <c r="F355" s="17"/>
@@ -12487,11 +12492,11 @@
     <row r="356" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="17"/>
       <c r="B356" s="23" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C356" s="24"/>
       <c r="D356" s="25">
-        <v>3.99</v>
+        <v>6.49</v>
       </c>
       <c r="E356" s="21"/>
       <c r="F356" s="17"/>
@@ -12515,252 +12520,252 @@
       <c r="X356" s="17"/>
     </row>
     <row r="357" spans="1:24" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A357" s="43"/>
-      <c r="B357" s="44"/>
-      <c r="C357" s="29"/>
-      <c r="D357" s="45"/>
-      <c r="E357" s="31"/>
-      <c r="F357" s="43"/>
-      <c r="G357" s="43"/>
-      <c r="H357" s="43"/>
-      <c r="I357" s="43"/>
-      <c r="J357" s="43"/>
-      <c r="K357" s="43"/>
-      <c r="L357" s="43"/>
-      <c r="M357" s="43"/>
-      <c r="N357" s="43"/>
-      <c r="O357" s="43"/>
-      <c r="P357" s="43"/>
-      <c r="Q357" s="43"/>
-      <c r="R357" s="43"/>
-      <c r="S357" s="43"/>
-      <c r="T357" s="43"/>
-      <c r="U357" s="43"/>
-      <c r="V357" s="43"/>
-      <c r="W357" s="43"/>
-      <c r="X357" s="43"/>
+      <c r="A357" s="42"/>
+      <c r="B357" s="43"/>
+      <c r="C357" s="28"/>
+      <c r="D357" s="44"/>
+      <c r="E357" s="30"/>
+      <c r="F357" s="42"/>
+      <c r="G357" s="42"/>
+      <c r="H357" s="42"/>
+      <c r="I357" s="42"/>
+      <c r="J357" s="42"/>
+      <c r="K357" s="42"/>
+      <c r="L357" s="42"/>
+      <c r="M357" s="42"/>
+      <c r="N357" s="42"/>
+      <c r="O357" s="42"/>
+      <c r="P357" s="42"/>
+      <c r="Q357" s="42"/>
+      <c r="R357" s="42"/>
+      <c r="S357" s="42"/>
+      <c r="T357" s="42"/>
+      <c r="U357" s="42"/>
+      <c r="V357" s="42"/>
+      <c r="W357" s="42"/>
+      <c r="X357" s="42"/>
     </row>
     <row r="358" spans="1:24" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A358" s="43"/>
-      <c r="B358" s="43"/>
-      <c r="C358" s="46"/>
-      <c r="D358" s="43"/>
-      <c r="E358" s="43"/>
-      <c r="F358" s="43"/>
-      <c r="G358" s="43"/>
-      <c r="H358" s="43"/>
-      <c r="I358" s="43"/>
-      <c r="J358" s="43"/>
-      <c r="K358" s="43"/>
-      <c r="L358" s="43"/>
-      <c r="M358" s="43"/>
-      <c r="N358" s="43"/>
-      <c r="O358" s="43"/>
-      <c r="P358" s="43"/>
-      <c r="Q358" s="43"/>
-      <c r="R358" s="43"/>
-      <c r="S358" s="43"/>
-      <c r="T358" s="43"/>
-      <c r="U358" s="43"/>
-      <c r="V358" s="43"/>
-      <c r="W358" s="43"/>
-      <c r="X358" s="43"/>
+      <c r="A358" s="42"/>
+      <c r="B358" s="42"/>
+      <c r="C358" s="45"/>
+      <c r="D358" s="42"/>
+      <c r="E358" s="42"/>
+      <c r="F358" s="42"/>
+      <c r="G358" s="42"/>
+      <c r="H358" s="42"/>
+      <c r="I358" s="42"/>
+      <c r="J358" s="42"/>
+      <c r="K358" s="42"/>
+      <c r="L358" s="42"/>
+      <c r="M358" s="42"/>
+      <c r="N358" s="42"/>
+      <c r="O358" s="42"/>
+      <c r="P358" s="42"/>
+      <c r="Q358" s="42"/>
+      <c r="R358" s="42"/>
+      <c r="S358" s="42"/>
+      <c r="T358" s="42"/>
+      <c r="U358" s="42"/>
+      <c r="V358" s="42"/>
+      <c r="W358" s="42"/>
+      <c r="X358" s="42"/>
     </row>
     <row r="359" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A359" s="43"/>
-      <c r="B359" s="47" t="s">
+      <c r="A359" s="42"/>
+      <c r="B359" s="46" t="s">
+        <v>320</v>
+      </c>
+      <c r="C359" s="47"/>
+      <c r="D359" s="48"/>
+      <c r="E359" s="49"/>
+      <c r="F359" s="42"/>
+      <c r="G359" s="42"/>
+      <c r="H359" s="42"/>
+      <c r="I359" s="42"/>
+      <c r="J359" s="42"/>
+      <c r="K359" s="42"/>
+      <c r="L359" s="42"/>
+      <c r="M359" s="42"/>
+      <c r="N359" s="42"/>
+      <c r="O359" s="42"/>
+      <c r="P359" s="42"/>
+      <c r="Q359" s="42"/>
+      <c r="R359" s="42"/>
+      <c r="S359" s="42"/>
+      <c r="T359" s="42"/>
+      <c r="U359" s="42"/>
+      <c r="V359" s="42"/>
+      <c r="W359" s="42"/>
+      <c r="X359" s="42"/>
+    </row>
+    <row r="360" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A360" s="42"/>
+      <c r="B360" s="23" t="s">
         <v>321</v>
-      </c>
-      <c r="C359" s="48"/>
-      <c r="D359" s="49"/>
-      <c r="E359" s="50"/>
-      <c r="F359" s="43"/>
-      <c r="G359" s="43"/>
-      <c r="H359" s="43"/>
-      <c r="I359" s="43"/>
-      <c r="J359" s="43"/>
-      <c r="K359" s="43"/>
-      <c r="L359" s="43"/>
-      <c r="M359" s="43"/>
-      <c r="N359" s="43"/>
-      <c r="O359" s="43"/>
-      <c r="P359" s="43"/>
-      <c r="Q359" s="43"/>
-      <c r="R359" s="43"/>
-      <c r="S359" s="43"/>
-      <c r="T359" s="43"/>
-      <c r="U359" s="43"/>
-      <c r="V359" s="43"/>
-      <c r="W359" s="43"/>
-      <c r="X359" s="43"/>
-    </row>
-    <row r="360" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A360" s="43"/>
-      <c r="B360" s="23" t="s">
-        <v>322</v>
       </c>
       <c r="C360" s="24"/>
       <c r="D360" s="25">
-        <v>1.29</v>
+        <v>2.29</v>
       </c>
       <c r="E360" s="21"/>
-      <c r="F360" s="43"/>
-      <c r="G360" s="43"/>
-      <c r="H360" s="43"/>
-      <c r="I360" s="43"/>
-      <c r="J360" s="43"/>
-      <c r="K360" s="43"/>
-      <c r="L360" s="43"/>
-      <c r="M360" s="43"/>
-      <c r="N360" s="43"/>
-      <c r="O360" s="43"/>
-      <c r="P360" s="43"/>
-      <c r="Q360" s="43"/>
-      <c r="R360" s="43"/>
-      <c r="S360" s="43"/>
-      <c r="T360" s="43"/>
-      <c r="U360" s="43"/>
-      <c r="V360" s="43"/>
-      <c r="W360" s="43"/>
-      <c r="X360" s="43"/>
+      <c r="F360" s="42"/>
+      <c r="G360" s="42"/>
+      <c r="H360" s="42"/>
+      <c r="I360" s="42"/>
+      <c r="J360" s="42"/>
+      <c r="K360" s="42"/>
+      <c r="L360" s="42"/>
+      <c r="M360" s="42"/>
+      <c r="N360" s="42"/>
+      <c r="O360" s="42"/>
+      <c r="P360" s="42"/>
+      <c r="Q360" s="42"/>
+      <c r="R360" s="42"/>
+      <c r="S360" s="42"/>
+      <c r="T360" s="42"/>
+      <c r="U360" s="42"/>
+      <c r="V360" s="42"/>
+      <c r="W360" s="42"/>
+      <c r="X360" s="42"/>
     </row>
     <row r="361" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A361" s="43"/>
+      <c r="A361" s="42"/>
       <c r="B361" s="23" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C361" s="24"/>
       <c r="D361" s="25">
-        <v>0.89</v>
+        <v>1.89</v>
       </c>
       <c r="E361" s="21"/>
-      <c r="F361" s="43"/>
-      <c r="G361" s="43"/>
-      <c r="H361" s="43"/>
-      <c r="I361" s="43"/>
-      <c r="J361" s="43"/>
-      <c r="K361" s="43"/>
-      <c r="L361" s="43"/>
-      <c r="M361" s="43"/>
-      <c r="N361" s="43"/>
-      <c r="O361" s="43"/>
-      <c r="P361" s="43"/>
-      <c r="Q361" s="43"/>
-      <c r="R361" s="43"/>
-      <c r="S361" s="43"/>
-      <c r="T361" s="43"/>
-      <c r="U361" s="43"/>
-      <c r="V361" s="43"/>
-      <c r="W361" s="43"/>
-      <c r="X361" s="43"/>
+      <c r="F361" s="42"/>
+      <c r="G361" s="42"/>
+      <c r="H361" s="42"/>
+      <c r="I361" s="42"/>
+      <c r="J361" s="42"/>
+      <c r="K361" s="42"/>
+      <c r="L361" s="42"/>
+      <c r="M361" s="42"/>
+      <c r="N361" s="42"/>
+      <c r="O361" s="42"/>
+      <c r="P361" s="42"/>
+      <c r="Q361" s="42"/>
+      <c r="R361" s="42"/>
+      <c r="S361" s="42"/>
+      <c r="T361" s="42"/>
+      <c r="U361" s="42"/>
+      <c r="V361" s="42"/>
+      <c r="W361" s="42"/>
+      <c r="X361" s="42"/>
     </row>
     <row r="362" spans="1:24" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A362" s="43"/>
-      <c r="B362" s="51" t="s">
-        <v>324</v>
-      </c>
-      <c r="C362" s="29"/>
-      <c r="D362" s="30">
-        <v>0.39</v>
-      </c>
-      <c r="E362" s="31"/>
-      <c r="F362" s="43"/>
-      <c r="G362" s="43"/>
-      <c r="H362" s="43"/>
-      <c r="I362" s="43"/>
-      <c r="J362" s="43"/>
-      <c r="K362" s="43"/>
-      <c r="L362" s="43"/>
-      <c r="M362" s="43"/>
-      <c r="N362" s="43"/>
-      <c r="O362" s="43"/>
-      <c r="P362" s="43"/>
-      <c r="Q362" s="43"/>
-      <c r="R362" s="43"/>
-      <c r="S362" s="43"/>
-      <c r="T362" s="43"/>
-      <c r="U362" s="43"/>
-      <c r="V362" s="43"/>
-      <c r="W362" s="43"/>
-      <c r="X362" s="43"/>
+      <c r="A362" s="42"/>
+      <c r="B362" s="50" t="s">
+        <v>323</v>
+      </c>
+      <c r="C362" s="28"/>
+      <c r="D362" s="29">
+        <v>1.39</v>
+      </c>
+      <c r="E362" s="30"/>
+      <c r="F362" s="42"/>
+      <c r="G362" s="42"/>
+      <c r="H362" s="42"/>
+      <c r="I362" s="42"/>
+      <c r="J362" s="42"/>
+      <c r="K362" s="42"/>
+      <c r="L362" s="42"/>
+      <c r="M362" s="42"/>
+      <c r="N362" s="42"/>
+      <c r="O362" s="42"/>
+      <c r="P362" s="42"/>
+      <c r="Q362" s="42"/>
+      <c r="R362" s="42"/>
+      <c r="S362" s="42"/>
+      <c r="T362" s="42"/>
+      <c r="U362" s="42"/>
+      <c r="V362" s="42"/>
+      <c r="W362" s="42"/>
+      <c r="X362" s="42"/>
     </row>
     <row r="363" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A363" s="43"/>
-      <c r="B363" s="43"/>
-      <c r="C363" s="46"/>
-      <c r="D363" s="52"/>
+      <c r="A363" s="42"/>
+      <c r="B363" s="42"/>
+      <c r="C363" s="45"/>
+      <c r="D363" s="51"/>
       <c r="E363" s="4"/>
-      <c r="F363" s="43"/>
-      <c r="G363" s="43"/>
-      <c r="H363" s="43"/>
-      <c r="I363" s="43"/>
-      <c r="J363" s="43"/>
-      <c r="K363" s="43"/>
-      <c r="L363" s="43"/>
-      <c r="M363" s="43"/>
-      <c r="N363" s="43"/>
-      <c r="O363" s="43"/>
-      <c r="P363" s="43"/>
-      <c r="Q363" s="43"/>
-      <c r="R363" s="43"/>
-      <c r="S363" s="43"/>
-      <c r="T363" s="43"/>
-      <c r="U363" s="43"/>
-      <c r="V363" s="43"/>
-      <c r="W363" s="43"/>
-      <c r="X363" s="43"/>
+      <c r="F363" s="42"/>
+      <c r="G363" s="42"/>
+      <c r="H363" s="42"/>
+      <c r="I363" s="42"/>
+      <c r="J363" s="42"/>
+      <c r="K363" s="42"/>
+      <c r="L363" s="42"/>
+      <c r="M363" s="42"/>
+      <c r="N363" s="42"/>
+      <c r="O363" s="42"/>
+      <c r="P363" s="42"/>
+      <c r="Q363" s="42"/>
+      <c r="R363" s="42"/>
+      <c r="S363" s="42"/>
+      <c r="T363" s="42"/>
+      <c r="U363" s="42"/>
+      <c r="V363" s="42"/>
+      <c r="W363" s="42"/>
+      <c r="X363" s="42"/>
     </row>
     <row r="364" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A364" s="43"/>
-      <c r="B364" s="43"/>
-      <c r="C364" s="46"/>
-      <c r="D364" s="52"/>
+      <c r="A364" s="42"/>
+      <c r="B364" s="42"/>
+      <c r="C364" s="45"/>
+      <c r="D364" s="51"/>
       <c r="E364" s="4"/>
-      <c r="F364" s="43"/>
-      <c r="G364" s="43"/>
-      <c r="H364" s="43"/>
-      <c r="I364" s="43"/>
-      <c r="J364" s="43"/>
-      <c r="K364" s="43"/>
-      <c r="L364" s="43"/>
-      <c r="M364" s="43"/>
-      <c r="N364" s="43"/>
-      <c r="O364" s="43"/>
-      <c r="P364" s="43"/>
-      <c r="Q364" s="43"/>
-      <c r="R364" s="43"/>
-      <c r="S364" s="43"/>
-      <c r="T364" s="43"/>
-      <c r="U364" s="43"/>
-      <c r="V364" s="43"/>
-      <c r="W364" s="43"/>
-      <c r="X364" s="43"/>
+      <c r="F364" s="42"/>
+      <c r="G364" s="42"/>
+      <c r="H364" s="42"/>
+      <c r="I364" s="42"/>
+      <c r="J364" s="42"/>
+      <c r="K364" s="42"/>
+      <c r="L364" s="42"/>
+      <c r="M364" s="42"/>
+      <c r="N364" s="42"/>
+      <c r="O364" s="42"/>
+      <c r="P364" s="42"/>
+      <c r="Q364" s="42"/>
+      <c r="R364" s="42"/>
+      <c r="S364" s="42"/>
+      <c r="T364" s="42"/>
+      <c r="U364" s="42"/>
+      <c r="V364" s="42"/>
+      <c r="W364" s="42"/>
+      <c r="X364" s="42"/>
     </row>
     <row r="365" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A365" s="43"/>
-      <c r="B365" s="43"/>
-      <c r="C365" s="46"/>
-      <c r="D365" s="52"/>
+      <c r="A365" s="42"/>
+      <c r="B365" s="42"/>
+      <c r="C365" s="45"/>
+      <c r="D365" s="51"/>
       <c r="E365" s="4"/>
-      <c r="F365" s="43"/>
-      <c r="G365" s="43"/>
-      <c r="H365" s="43"/>
-      <c r="I365" s="43"/>
-      <c r="J365" s="43"/>
-      <c r="K365" s="43"/>
-      <c r="L365" s="43"/>
-      <c r="M365" s="43"/>
-      <c r="N365" s="43"/>
-      <c r="O365" s="43"/>
-      <c r="P365" s="43"/>
-      <c r="Q365" s="43"/>
-      <c r="R365" s="43"/>
-      <c r="S365" s="43"/>
-      <c r="T365" s="43"/>
-      <c r="U365" s="43"/>
-      <c r="V365" s="43"/>
-      <c r="W365" s="43"/>
-      <c r="X365" s="43"/>
+      <c r="F365" s="42"/>
+      <c r="G365" s="42"/>
+      <c r="H365" s="42"/>
+      <c r="I365" s="42"/>
+      <c r="J365" s="42"/>
+      <c r="K365" s="42"/>
+      <c r="L365" s="42"/>
+      <c r="M365" s="42"/>
+      <c r="N365" s="42"/>
+      <c r="O365" s="42"/>
+      <c r="P365" s="42"/>
+      <c r="Q365" s="42"/>
+      <c r="R365" s="42"/>
+      <c r="S365" s="42"/>
+      <c r="T365" s="42"/>
+      <c r="U365" s="42"/>
+      <c r="V365" s="42"/>
+      <c r="W365" s="42"/>
+      <c r="X365" s="42"/>
     </row>
     <row r="366" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="1"/>

--- a/public/documents/iAqua Aquatics Plants.xlsx
+++ b/public/documents/iAqua Aquatics Plants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\notkr\OneDrive\Documents\Files\iAqua\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0FA37C-FC75-4B98-82D8-6C2FBAB43219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDF638C-3A29-4D25-86C5-85DAAA9BCF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1721,6 +1721,15 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1741,15 +1750,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1983,12 +1983,12 @@
   <sheetData>
     <row r="1" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="57" t="s">
         <v>324</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -2063,12 +2063,12 @@
     </row>
     <row r="4" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="57"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="60"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -2091,10 +2091,10 @@
     </row>
     <row r="5" spans="1:24" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="63"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -3555,7 +3555,7 @@
     </row>
     <row r="54" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="22"/>
-      <c r="B54" s="61" t="s">
+      <c r="B54" s="54" t="s">
         <v>50</v>
       </c>
       <c r="C54" s="24"/>
@@ -5019,7 +5019,7 @@
     </row>
     <row r="103" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="22"/>
-      <c r="B103" s="61" t="s">
+      <c r="B103" s="54" t="s">
         <v>98</v>
       </c>
       <c r="C103" s="24"/>
@@ -5759,7 +5759,7 @@
     </row>
     <row r="128" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="22"/>
-      <c r="B128" s="61" t="s">
+      <c r="B128" s="54" t="s">
         <v>121</v>
       </c>
       <c r="C128" s="24"/>
@@ -6923,7 +6923,7 @@
     </row>
     <row r="167" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="22"/>
-      <c r="B167" s="61" t="s">
+      <c r="B167" s="54" t="s">
         <v>157</v>
       </c>
       <c r="C167" s="24"/>
@@ -7157,7 +7157,7 @@
     </row>
     <row r="175" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="22"/>
-      <c r="B175" s="61" t="s">
+      <c r="B175" s="54" t="s">
         <v>164</v>
       </c>
       <c r="C175" s="24"/>
@@ -8463,7 +8463,7 @@
     </row>
     <row r="219" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="17"/>
-      <c r="B219" s="61" t="s">
+      <c r="B219" s="54" t="s">
         <v>206</v>
       </c>
       <c r="C219" s="24"/>
@@ -8667,7 +8667,7 @@
     </row>
     <row r="226" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="22"/>
-      <c r="B226" s="61" t="s">
+      <c r="B226" s="54" t="s">
         <v>211</v>
       </c>
       <c r="C226" s="24"/>
@@ -9615,7 +9615,7 @@
     </row>
     <row r="259" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A259" s="22"/>
-      <c r="B259" s="62" t="s">
+      <c r="B259" s="55" t="s">
         <v>236</v>
       </c>
       <c r="C259" s="28"/>
@@ -10591,7 +10591,7 @@
     </row>
     <row r="292" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="17"/>
-      <c r="B292" s="63" t="s">
+      <c r="B292" s="56" t="s">
         <v>261</v>
       </c>
       <c r="C292" s="37"/>
@@ -11217,7 +11217,7 @@
     </row>
     <row r="313" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="17"/>
-      <c r="B313" s="63" t="s">
+      <c r="B313" s="56" t="s">
         <v>281</v>
       </c>
       <c r="C313" s="19"/>
@@ -11603,7 +11603,7 @@
     </row>
     <row r="326" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="17"/>
-      <c r="B326" s="63" t="s">
+      <c r="B326" s="56" t="s">
         <v>293</v>
       </c>
       <c r="C326" s="19"/>
@@ -12313,7 +12313,7 @@
     </row>
     <row r="350" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="22"/>
-      <c r="B350" s="61" t="s">
+      <c r="B350" s="54" t="s">
         <v>315</v>
       </c>
       <c r="C350" s="24"/>

--- a/public/documents/iAqua Aquatics Plants.xlsx
+++ b/public/documents/iAqua Aquatics Plants.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\notkr\OneDrive\Documents\Files\iAqua\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\notkr\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDF638C-3A29-4D25-86C5-85DAAA9BCF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5741E6DF-6421-4942-A09E-C0F75706C465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,25 +30,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="325">
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Georgia"/>
-      </rPr>
-      <t>Note</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Georgia"/>
-      </rPr>
-      <t xml:space="preserve">: All ORDERS MUST BE PICKED UP THE DAY OF ARRIVAL! </t>
-    </r>
-  </si>
-  <si>
     <t>Plant Name</t>
   </si>
   <si>
@@ -612,6 +593,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">FOUR LEAF CLOVER </t>
     </r>
@@ -620,6 +602,7 @@
         <sz val="8"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>DWARF - CLUMP</t>
     </r>
@@ -630,6 +613,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">FOUR LEAF CLOVER - </t>
     </r>
@@ -638,6 +622,7 @@
         <sz val="8"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>CLUMP</t>
     </r>
@@ -648,6 +633,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">HAIRGRASS - </t>
     </r>
@@ -656,6 +642,7 @@
         <sz val="8"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>CLUMP</t>
     </r>
@@ -1064,13 +1051,53 @@
   </si>
   <si>
     <t xml:space="preserve">iAqua Aquatics Live Plants ($75 Minimum) </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Georgia"/>
+        <family val="1"/>
+      </rPr>
+      <t>NOTE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Georgia"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: All ORDERS MUST BE PICKED UP THE DAY OF ARRIVAL!  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Georgia"/>
+        <family val="1"/>
+      </rPr>
+      <t>NOTE:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Georgia"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> SOME PRICES MAY CHANGE WITHOUT NOTICE</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1087,11 +1114,13 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -1099,6 +1128,7 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -1106,45 +1136,47 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Georgia"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
       <color theme="1"/>
       <name val="Georgia"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Georgia"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Georgia"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1152,11 +1184,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1164,6 +1198,7 @@
       <sz val="13"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1171,22 +1206,26 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1194,17 +1233,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Georgia"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1218,6 +1253,25 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Georgia"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1605,13 +1659,28 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1624,61 +1693,22 @@
     <xf numFmtId="2" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1687,68 +1717,92 @@
     <xf numFmtId="2" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1969,7 +2023,7 @@
   <dimension ref="A1:X992"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1984,7 +2038,7 @@
     <row r="1" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" s="57" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C1" s="57"/>
       <c r="D1" s="57"/>
@@ -2063,12 +2117,12 @@
     </row>
     <row r="4" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
-      <c r="B4" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="60"/>
+      <c r="B4" s="63" t="s">
+        <v>324</v>
+      </c>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="59"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -2089,12 +2143,12 @@
       <c r="W4" s="10"/>
       <c r="X4" s="10"/>
     </row>
-    <row r="5" spans="1:24" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="63"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="62"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -2118,14 +2172,14 @@
     <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="52" t="s">
         <v>2</v>
-      </c>
-      <c r="E6" s="52" t="s">
-        <v>3</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
@@ -2150,7 +2204,7 @@
     <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="17"/>
       <c r="B7" s="18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="20">
@@ -2180,7 +2234,7 @@
     <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22"/>
       <c r="B8" s="23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25">
@@ -2210,7 +2264,7 @@
     <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="22"/>
       <c r="B9" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="24"/>
       <c r="D9" s="25">
@@ -2240,7 +2294,7 @@
     <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="22"/>
       <c r="B10" s="23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="24"/>
       <c r="D10" s="25">
@@ -2270,7 +2324,7 @@
     <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22"/>
       <c r="B11" s="23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="24"/>
       <c r="D11" s="25">
@@ -2300,7 +2354,7 @@
     <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22"/>
       <c r="B12" s="23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="24"/>
       <c r="D12" s="25">
@@ -2330,7 +2384,7 @@
     <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22"/>
       <c r="B13" s="23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="25">
@@ -2360,7 +2414,7 @@
     <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22"/>
       <c r="B14" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="24"/>
       <c r="D14" s="25">
@@ -2390,7 +2444,7 @@
     <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="B15" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="20">
@@ -2420,7 +2474,7 @@
     <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="22"/>
       <c r="B16" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="25">
@@ -2450,7 +2504,7 @@
     <row r="17" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="22"/>
       <c r="B17" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="24"/>
       <c r="D17" s="25">
@@ -2480,7 +2534,7 @@
     <row r="18" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="22"/>
       <c r="B18" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="24"/>
       <c r="D18" s="25">
@@ -2510,7 +2564,7 @@
     <row r="19" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="22"/>
       <c r="B19" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="24"/>
       <c r="D19" s="25">
@@ -2540,7 +2594,7 @@
     <row r="20" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="22"/>
       <c r="B20" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="24"/>
       <c r="D20" s="25">
@@ -2570,7 +2624,7 @@
     <row r="21" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="22"/>
       <c r="B21" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="24"/>
       <c r="D21" s="25">
@@ -2600,7 +2654,7 @@
     <row r="22" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
       <c r="B22" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="20">
@@ -2630,7 +2684,7 @@
     <row r="23" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="22"/>
       <c r="B23" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="24"/>
       <c r="D23" s="25">
@@ -2660,7 +2714,7 @@
     <row r="24" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="22"/>
       <c r="B24" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" s="24"/>
       <c r="D24" s="25">
@@ -2690,7 +2744,7 @@
     <row r="25" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="22"/>
       <c r="B25" s="23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" s="24"/>
       <c r="D25" s="25">
@@ -2720,7 +2774,7 @@
     <row r="26" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="22"/>
       <c r="B26" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" s="24"/>
       <c r="D26" s="25">
@@ -2750,7 +2804,7 @@
     <row r="27" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="22"/>
       <c r="B27" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" s="24"/>
       <c r="D27" s="25">
@@ -2780,7 +2834,7 @@
     <row r="28" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="22"/>
       <c r="B28" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" s="24"/>
       <c r="D28" s="25">
@@ -2810,7 +2864,7 @@
     <row r="29" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="22"/>
       <c r="B29" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" s="24"/>
       <c r="D29" s="25">
@@ -2840,7 +2894,7 @@
     <row r="30" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="22"/>
       <c r="B30" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="24"/>
       <c r="D30" s="25">
@@ -2870,7 +2924,7 @@
     <row r="31" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="22"/>
       <c r="B31" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31" s="24"/>
       <c r="D31" s="25">
@@ -2900,7 +2954,7 @@
     <row r="32" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="22"/>
       <c r="B32" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" s="24"/>
       <c r="D32" s="25">
@@ -2930,7 +2984,7 @@
     <row r="33" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="22"/>
       <c r="B33" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33" s="24"/>
       <c r="D33" s="25">
@@ -2960,7 +3014,7 @@
     <row r="34" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="22"/>
       <c r="B34" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C34" s="24"/>
       <c r="D34" s="25">
@@ -2990,7 +3044,7 @@
     <row r="35" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="22"/>
       <c r="B35" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C35" s="24"/>
       <c r="D35" s="25">
@@ -3020,7 +3074,7 @@
     <row r="36" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="22"/>
       <c r="B36" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C36" s="24"/>
       <c r="D36" s="25">
@@ -3050,7 +3104,7 @@
     <row r="37" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="22"/>
       <c r="B37" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C37" s="24"/>
       <c r="D37" s="20">
@@ -3080,7 +3134,7 @@
     <row r="38" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="22"/>
       <c r="B38" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C38" s="24"/>
       <c r="D38" s="25">
@@ -3110,7 +3164,7 @@
     <row r="39" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="22"/>
       <c r="B39" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C39" s="24"/>
       <c r="D39" s="25">
@@ -3140,7 +3194,7 @@
     <row r="40" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="22"/>
       <c r="B40" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C40" s="24"/>
       <c r="D40" s="25">
@@ -3170,7 +3224,7 @@
     <row r="41" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="22"/>
       <c r="B41" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C41" s="24"/>
       <c r="D41" s="25">
@@ -3200,7 +3254,7 @@
     <row r="42" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="22"/>
       <c r="B42" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C42" s="24"/>
       <c r="D42" s="25">
@@ -3230,7 +3284,7 @@
     <row r="43" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="22"/>
       <c r="B43" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C43" s="24"/>
       <c r="D43" s="25">
@@ -3260,7 +3314,7 @@
     <row r="44" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="22"/>
       <c r="B44" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C44" s="24"/>
       <c r="D44" s="25">
@@ -3290,7 +3344,7 @@
     <row r="45" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="22"/>
       <c r="B45" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C45" s="24"/>
       <c r="D45" s="20">
@@ -3320,7 +3374,7 @@
     <row r="46" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="22"/>
       <c r="B46" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C46" s="24"/>
       <c r="D46" s="25">
@@ -3350,7 +3404,7 @@
     <row r="47" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="22"/>
       <c r="B47" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C47" s="24"/>
       <c r="D47" s="25">
@@ -3380,7 +3434,7 @@
     <row r="48" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="22"/>
       <c r="B48" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C48" s="24"/>
       <c r="D48" s="25">
@@ -3410,7 +3464,7 @@
     <row r="49" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="22"/>
       <c r="B49" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C49" s="24"/>
       <c r="D49" s="25">
@@ -3440,7 +3494,7 @@
     <row r="50" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="17"/>
       <c r="B50" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C50" s="19"/>
       <c r="D50" s="20">
@@ -3470,7 +3524,7 @@
     <row r="51" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="22"/>
       <c r="B51" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C51" s="24"/>
       <c r="D51" s="25">
@@ -3500,7 +3554,7 @@
     <row r="52" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="22"/>
       <c r="B52" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C52" s="24"/>
       <c r="D52" s="25">
@@ -3556,7 +3610,7 @@
     <row r="54" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="22"/>
       <c r="B54" s="54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C54" s="24"/>
       <c r="D54" s="25"/>
@@ -3584,7 +3638,7 @@
     <row r="55" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="22"/>
       <c r="B55" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C55" s="24"/>
       <c r="D55" s="25">
@@ -3614,7 +3668,7 @@
     <row r="56" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="22"/>
       <c r="B56" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C56" s="24"/>
       <c r="D56" s="25">
@@ -3644,7 +3698,7 @@
     <row r="57" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="22"/>
       <c r="B57" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C57" s="24"/>
       <c r="D57" s="25">
@@ -3674,7 +3728,7 @@
     <row r="58" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="22"/>
       <c r="B58" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C58" s="24"/>
       <c r="D58" s="25">
@@ -3704,7 +3758,7 @@
     <row r="59" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="22"/>
       <c r="B59" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C59" s="24"/>
       <c r="D59" s="25">
@@ -3734,7 +3788,7 @@
     <row r="60" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="22"/>
       <c r="B60" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C60" s="24"/>
       <c r="D60" s="25">
@@ -3764,7 +3818,7 @@
     <row r="61" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="22"/>
       <c r="B61" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C61" s="24"/>
       <c r="D61" s="25">
@@ -3794,7 +3848,7 @@
     <row r="62" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="22"/>
       <c r="B62" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C62" s="24"/>
       <c r="D62" s="25">
@@ -3824,7 +3878,7 @@
     <row r="63" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="22"/>
       <c r="B63" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C63" s="24"/>
       <c r="D63" s="25">
@@ -3854,7 +3908,7 @@
     <row r="64" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="17"/>
       <c r="B64" s="53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C64" s="19"/>
       <c r="D64" s="25">
@@ -3884,7 +3938,7 @@
     <row r="65" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="17"/>
       <c r="B65" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C65" s="19"/>
       <c r="D65" s="20">
@@ -3914,7 +3968,7 @@
     <row r="66" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="17"/>
       <c r="B66" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C66" s="19"/>
       <c r="D66" s="20">
@@ -3944,7 +3998,7 @@
     <row r="67" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="17"/>
       <c r="B67" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C67" s="19"/>
       <c r="D67" s="20">
@@ -3974,7 +4028,7 @@
     <row r="68" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="22"/>
       <c r="B68" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C68" s="24"/>
       <c r="D68" s="25">
@@ -4004,7 +4058,7 @@
     <row r="69" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="22"/>
       <c r="B69" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C69" s="24"/>
       <c r="D69" s="25">
@@ -4034,7 +4088,7 @@
     <row r="70" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="22"/>
       <c r="B70" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C70" s="24"/>
       <c r="D70" s="25">
@@ -4064,7 +4118,7 @@
     <row r="71" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="22"/>
       <c r="B71" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C71" s="24"/>
       <c r="D71" s="25">
@@ -4094,7 +4148,7 @@
     <row r="72" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="22"/>
       <c r="B72" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C72" s="24"/>
       <c r="D72" s="25">
@@ -4124,7 +4178,7 @@
     <row r="73" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="22"/>
       <c r="B73" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C73" s="24"/>
       <c r="D73" s="25">
@@ -4154,7 +4208,7 @@
     <row r="74" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="22"/>
       <c r="B74" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C74" s="24"/>
       <c r="D74" s="25">
@@ -4184,7 +4238,7 @@
     <row r="75" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="22"/>
       <c r="B75" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C75" s="24"/>
       <c r="D75" s="25">
@@ -4214,7 +4268,7 @@
     <row r="76" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="22"/>
       <c r="B76" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C76" s="24"/>
       <c r="D76" s="25">
@@ -4244,7 +4298,7 @@
     <row r="77" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="22"/>
       <c r="B77" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C77" s="24"/>
       <c r="D77" s="25">
@@ -4274,7 +4328,7 @@
     <row r="78" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="22"/>
       <c r="B78" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C78" s="24"/>
       <c r="D78" s="25">
@@ -4304,7 +4358,7 @@
     <row r="79" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="22"/>
       <c r="B79" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C79" s="24"/>
       <c r="D79" s="25">
@@ -4334,7 +4388,7 @@
     <row r="80" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="17"/>
       <c r="B80" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C80" s="19"/>
       <c r="D80" s="20">
@@ -4364,7 +4418,7 @@
     <row r="81" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="22"/>
       <c r="B81" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C81" s="24"/>
       <c r="D81" s="25">
@@ -4394,7 +4448,7 @@
     <row r="82" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="22"/>
       <c r="B82" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C82" s="24"/>
       <c r="D82" s="25">
@@ -4424,7 +4478,7 @@
     <row r="83" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="22"/>
       <c r="B83" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C83" s="24"/>
       <c r="D83" s="25">
@@ -4454,7 +4508,7 @@
     <row r="84" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="22"/>
       <c r="B84" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C84" s="24"/>
       <c r="D84" s="25">
@@ -4484,7 +4538,7 @@
     <row r="85" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="22"/>
       <c r="B85" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C85" s="24"/>
       <c r="D85" s="25">
@@ -4514,7 +4568,7 @@
     <row r="86" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="22"/>
       <c r="B86" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C86" s="24"/>
       <c r="D86" s="25">
@@ -4544,7 +4598,7 @@
     <row r="87" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="22"/>
       <c r="B87" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C87" s="24"/>
       <c r="D87" s="25">
@@ -4574,7 +4628,7 @@
     <row r="88" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="22"/>
       <c r="B88" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C88" s="24"/>
       <c r="D88" s="25">
@@ -4604,7 +4658,7 @@
     <row r="89" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="22"/>
       <c r="B89" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C89" s="24"/>
       <c r="D89" s="25">
@@ -4634,7 +4688,7 @@
     <row r="90" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="22"/>
       <c r="B90" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C90" s="24"/>
       <c r="D90" s="25">
@@ -4664,7 +4718,7 @@
     <row r="91" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="22"/>
       <c r="B91" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C91" s="24"/>
       <c r="D91" s="25">
@@ -4694,7 +4748,7 @@
     <row r="92" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="22"/>
       <c r="B92" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C92" s="24"/>
       <c r="D92" s="25">
@@ -4724,7 +4778,7 @@
     <row r="93" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="22"/>
       <c r="B93" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C93" s="24"/>
       <c r="D93" s="25">
@@ -4754,7 +4808,7 @@
     <row r="94" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="22"/>
       <c r="B94" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C94" s="24"/>
       <c r="D94" s="25">
@@ -4784,7 +4838,7 @@
     <row r="95" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="22"/>
       <c r="B95" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C95" s="24"/>
       <c r="D95" s="25">
@@ -4814,7 +4868,7 @@
     <row r="96" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="22"/>
       <c r="B96" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="24"/>
       <c r="D96" s="25">
@@ -4844,7 +4898,7 @@
     <row r="97" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="17"/>
       <c r="B97" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C97" s="19"/>
       <c r="D97" s="20">
@@ -4874,7 +4928,7 @@
     <row r="98" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="17"/>
       <c r="B98" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C98" s="19"/>
       <c r="D98" s="20">
@@ -4904,7 +4958,7 @@
     <row r="99" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="17"/>
       <c r="B99" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C99" s="19"/>
       <c r="D99" s="20">
@@ -4934,7 +4988,7 @@
     <row r="100" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="22"/>
       <c r="B100" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C100" s="24"/>
       <c r="D100" s="25">
@@ -4964,7 +5018,7 @@
     <row r="101" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="22"/>
       <c r="B101" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C101" s="24"/>
       <c r="D101" s="25">
@@ -5020,7 +5074,7 @@
     <row r="103" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="22"/>
       <c r="B103" s="54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C103" s="24"/>
       <c r="D103" s="25"/>
@@ -5048,7 +5102,7 @@
     <row r="104" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="22"/>
       <c r="B104" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C104" s="24"/>
       <c r="D104" s="25">
@@ -5078,7 +5132,7 @@
     <row r="105" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="22"/>
       <c r="B105" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C105" s="24"/>
       <c r="D105" s="25">
@@ -5108,7 +5162,7 @@
     <row r="106" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="22"/>
       <c r="B106" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C106" s="24"/>
       <c r="D106" s="25">
@@ -5138,7 +5192,7 @@
     <row r="107" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="22"/>
       <c r="B107" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C107" s="24"/>
       <c r="D107" s="25">
@@ -5168,7 +5222,7 @@
     <row r="108" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="22"/>
       <c r="B108" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C108" s="24"/>
       <c r="D108" s="25">
@@ -5198,7 +5252,7 @@
     <row r="109" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="22"/>
       <c r="B109" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C109" s="24"/>
       <c r="D109" s="25">
@@ -5228,7 +5282,7 @@
     <row r="110" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="22"/>
       <c r="B110" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C110" s="24"/>
       <c r="D110" s="25">
@@ -5258,7 +5312,7 @@
     <row r="111" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="22"/>
       <c r="B111" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C111" s="24"/>
       <c r="D111" s="25">
@@ -5288,7 +5342,7 @@
     <row r="112" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="17"/>
       <c r="B112" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C112" s="19"/>
       <c r="D112" s="20">
@@ -5318,7 +5372,7 @@
     <row r="113" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="22"/>
       <c r="B113" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C113" s="24"/>
       <c r="D113" s="25">
@@ -5348,7 +5402,7 @@
     <row r="114" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="22"/>
       <c r="B114" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C114" s="24"/>
       <c r="D114" s="25">
@@ -5378,7 +5432,7 @@
     <row r="115" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="22"/>
       <c r="B115" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C115" s="24"/>
       <c r="D115" s="25">
@@ -5408,7 +5462,7 @@
     <row r="116" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="22"/>
       <c r="B116" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C116" s="24"/>
       <c r="D116" s="25">
@@ -5438,7 +5492,7 @@
     <row r="117" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="22"/>
       <c r="B117" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C117" s="24"/>
       <c r="D117" s="25">
@@ -5468,7 +5522,7 @@
     <row r="118" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="22"/>
       <c r="B118" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C118" s="24"/>
       <c r="D118" s="25">
@@ -5498,7 +5552,7 @@
     <row r="119" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="22"/>
       <c r="B119" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C119" s="24"/>
       <c r="D119" s="25">
@@ -5528,7 +5582,7 @@
     <row r="120" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="22"/>
       <c r="B120" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C120" s="24"/>
       <c r="D120" s="25">
@@ -5558,7 +5612,7 @@
     <row r="121" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="22"/>
       <c r="B121" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C121" s="24"/>
       <c r="D121" s="25">
@@ -5588,7 +5642,7 @@
     <row r="122" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="22"/>
       <c r="B122" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C122" s="24"/>
       <c r="D122" s="25">
@@ -5644,7 +5698,7 @@
     <row r="124" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="22"/>
       <c r="B124" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C124" s="24"/>
       <c r="D124" s="25">
@@ -5674,7 +5728,7 @@
     <row r="125" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="22"/>
       <c r="B125" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C125" s="24"/>
       <c r="D125" s="25">
@@ -5704,7 +5758,7 @@
     <row r="126" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="22"/>
       <c r="B126" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C126" s="24"/>
       <c r="D126" s="25">
@@ -5760,7 +5814,7 @@
     <row r="128" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="22"/>
       <c r="B128" s="54" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C128" s="24"/>
       <c r="D128" s="25"/>
@@ -5788,7 +5842,7 @@
     <row r="129" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="22"/>
       <c r="B129" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C129" s="24"/>
       <c r="D129" s="25">
@@ -5818,7 +5872,7 @@
     <row r="130" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="22"/>
       <c r="B130" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C130" s="24"/>
       <c r="D130" s="25">
@@ -5848,7 +5902,7 @@
     <row r="131" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="22"/>
       <c r="B131" s="23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C131" s="24"/>
       <c r="D131" s="25">
@@ -5878,7 +5932,7 @@
     <row r="132" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="22"/>
       <c r="B132" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C132" s="24"/>
       <c r="D132" s="25">
@@ -5908,7 +5962,7 @@
     <row r="133" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="22"/>
       <c r="B133" s="23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C133" s="24"/>
       <c r="D133" s="25">
@@ -5938,7 +5992,7 @@
     <row r="134" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="22"/>
       <c r="B134" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C134" s="24"/>
       <c r="D134" s="25">
@@ -5968,7 +6022,7 @@
     <row r="135" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="22"/>
       <c r="B135" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C135" s="24"/>
       <c r="D135" s="25">
@@ -5998,7 +6052,7 @@
     <row r="136" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="22"/>
       <c r="B136" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C136" s="24"/>
       <c r="D136" s="25">
@@ -6028,7 +6082,7 @@
     <row r="137" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="22"/>
       <c r="B137" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C137" s="24"/>
       <c r="D137" s="25">
@@ -6058,7 +6112,7 @@
     <row r="138" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="22"/>
       <c r="B138" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C138" s="24"/>
       <c r="D138" s="25">
@@ -6088,7 +6142,7 @@
     <row r="139" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="22"/>
       <c r="B139" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C139" s="24"/>
       <c r="D139" s="25">
@@ -6118,7 +6172,7 @@
     <row r="140" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="22"/>
       <c r="B140" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C140" s="24"/>
       <c r="D140" s="25">
@@ -6148,7 +6202,7 @@
     <row r="141" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="22"/>
       <c r="B141" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C141" s="24"/>
       <c r="D141" s="25">
@@ -6178,7 +6232,7 @@
     <row r="142" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="22"/>
       <c r="B142" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C142" s="24"/>
       <c r="D142" s="25">
@@ -6208,7 +6262,7 @@
     <row r="143" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="22"/>
       <c r="B143" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C143" s="24"/>
       <c r="D143" s="25">
@@ -6238,7 +6292,7 @@
     <row r="144" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="22"/>
       <c r="B144" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C144" s="24"/>
       <c r="D144" s="25">
@@ -6268,7 +6322,7 @@
     <row r="145" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="22"/>
       <c r="B145" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C145" s="24"/>
       <c r="D145" s="25">
@@ -6298,7 +6352,7 @@
     <row r="146" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="22"/>
       <c r="B146" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C146" s="24"/>
       <c r="D146" s="25">
@@ -6328,7 +6382,7 @@
     <row r="147" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="22"/>
       <c r="B147" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C147" s="24"/>
       <c r="D147" s="25">
@@ -6358,7 +6412,7 @@
     <row r="148" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="22"/>
       <c r="B148" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C148" s="24"/>
       <c r="D148" s="25">
@@ -6388,7 +6442,7 @@
     <row r="149" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="22"/>
       <c r="B149" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C149" s="24"/>
       <c r="D149" s="25">
@@ -6418,7 +6472,7 @@
     <row r="150" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="22"/>
       <c r="B150" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C150" s="24"/>
       <c r="D150" s="25">
@@ -6448,7 +6502,7 @@
     <row r="151" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="17"/>
       <c r="B151" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C151" s="19"/>
       <c r="D151" s="20">
@@ -6478,7 +6532,7 @@
     <row r="152" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="17"/>
       <c r="B152" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C152" s="19"/>
       <c r="D152" s="20">
@@ -6508,7 +6562,7 @@
     <row r="153" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="17"/>
       <c r="B153" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C153" s="19"/>
       <c r="D153" s="20">
@@ -6538,7 +6592,7 @@
     <row r="154" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="22"/>
       <c r="B154" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C154" s="24"/>
       <c r="D154" s="25">
@@ -6568,7 +6622,7 @@
     <row r="155" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="22"/>
       <c r="B155" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C155" s="24"/>
       <c r="D155" s="25">
@@ -6598,7 +6652,7 @@
     <row r="156" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="22"/>
       <c r="B156" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C156" s="24"/>
       <c r="D156" s="25">
@@ -6628,7 +6682,7 @@
     <row r="157" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="22"/>
       <c r="B157" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C157" s="24"/>
       <c r="D157" s="25">
@@ -6658,7 +6712,7 @@
     <row r="158" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="22"/>
       <c r="B158" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C158" s="24"/>
       <c r="D158" s="25">
@@ -6688,7 +6742,7 @@
     <row r="159" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="22"/>
       <c r="B159" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C159" s="24"/>
       <c r="D159" s="25">
@@ -6718,7 +6772,7 @@
     <row r="160" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="22"/>
       <c r="B160" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C160" s="24"/>
       <c r="D160" s="25">
@@ -6748,7 +6802,7 @@
     <row r="161" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="22"/>
       <c r="B161" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C161" s="24"/>
       <c r="D161" s="25">
@@ -6778,7 +6832,7 @@
     <row r="162" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="22"/>
       <c r="B162" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C162" s="24"/>
       <c r="D162" s="25">
@@ -6808,7 +6862,7 @@
     <row r="163" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="17"/>
       <c r="B163" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C163" s="19"/>
       <c r="D163" s="20">
@@ -6838,7 +6892,7 @@
     <row r="164" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="17"/>
       <c r="B164" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C164" s="19"/>
       <c r="D164" s="20">
@@ -6868,7 +6922,7 @@
     <row r="165" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="17"/>
       <c r="B165" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C165" s="19"/>
       <c r="D165" s="20">
@@ -6924,7 +6978,7 @@
     <row r="167" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="22"/>
       <c r="B167" s="54" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C167" s="24"/>
       <c r="D167" s="25"/>
@@ -6952,7 +7006,7 @@
     <row r="168" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="22"/>
       <c r="B168" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C168" s="24"/>
       <c r="D168" s="25">
@@ -6982,7 +7036,7 @@
     <row r="169" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="22"/>
       <c r="B169" s="23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C169" s="24"/>
       <c r="D169" s="25">
@@ -7012,7 +7066,7 @@
     <row r="170" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="22"/>
       <c r="B170" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C170" s="24"/>
       <c r="D170" s="25">
@@ -7042,7 +7096,7 @@
     <row r="171" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="22"/>
       <c r="B171" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C171" s="24"/>
       <c r="D171" s="25">
@@ -7072,7 +7126,7 @@
     <row r="172" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="22"/>
       <c r="B172" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C172" s="24"/>
       <c r="D172" s="25">
@@ -7102,7 +7156,7 @@
     <row r="173" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="22"/>
       <c r="B173" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C173" s="24"/>
       <c r="D173" s="25">
@@ -7158,7 +7212,7 @@
     <row r="175" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="22"/>
       <c r="B175" s="54" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C175" s="24"/>
       <c r="D175" s="25"/>
@@ -7186,7 +7240,7 @@
     <row r="176" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="22"/>
       <c r="B176" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C176" s="24"/>
       <c r="D176" s="25">
@@ -7216,7 +7270,7 @@
     <row r="177" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="22"/>
       <c r="B177" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C177" s="24"/>
       <c r="D177" s="25">
@@ -7246,7 +7300,7 @@
     <row r="178" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="22"/>
       <c r="B178" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C178" s="24"/>
       <c r="D178" s="25">
@@ -7276,7 +7330,7 @@
     <row r="179" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="22"/>
       <c r="B179" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C179" s="24"/>
       <c r="D179" s="25">
@@ -7306,7 +7360,7 @@
     <row r="180" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="17"/>
       <c r="B180" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C180" s="19"/>
       <c r="D180" s="20">
@@ -7336,7 +7390,7 @@
     <row r="181" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="22"/>
       <c r="B181" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C181" s="24"/>
       <c r="D181" s="25">
@@ -7366,7 +7420,7 @@
     <row r="182" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="22"/>
       <c r="B182" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C182" s="24"/>
       <c r="D182" s="25">
@@ -7396,7 +7450,7 @@
     <row r="183" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="22"/>
       <c r="B183" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C183" s="24"/>
       <c r="D183" s="25">
@@ -7426,7 +7480,7 @@
     <row r="184" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="22"/>
       <c r="B184" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C184" s="24"/>
       <c r="D184" s="25">
@@ -7456,7 +7510,7 @@
     <row r="185" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="22"/>
       <c r="B185" s="23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C185" s="24"/>
       <c r="D185" s="25">
@@ -7486,7 +7540,7 @@
     <row r="186" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="17"/>
       <c r="B186" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C186" s="19"/>
       <c r="D186" s="20">
@@ -7516,7 +7570,7 @@
     <row r="187" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="22"/>
       <c r="B187" s="23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C187" s="24"/>
       <c r="D187" s="25">
@@ -7546,7 +7600,7 @@
     <row r="188" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="22"/>
       <c r="B188" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C188" s="24"/>
       <c r="D188" s="25">
@@ -7576,7 +7630,7 @@
     <row r="189" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="22"/>
       <c r="B189" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C189" s="24"/>
       <c r="D189" s="25">
@@ -7632,7 +7686,7 @@
     <row r="191" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="22"/>
       <c r="B191" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C191" s="24"/>
       <c r="D191" s="25"/>
@@ -7660,7 +7714,7 @@
     <row r="192" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="22"/>
       <c r="B192" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C192" s="24"/>
       <c r="D192" s="20">
@@ -7690,7 +7744,7 @@
     <row r="193" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="22"/>
       <c r="B193" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C193" s="24"/>
       <c r="D193" s="25">
@@ -7720,7 +7774,7 @@
     <row r="194" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="22"/>
       <c r="B194" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C194" s="24"/>
       <c r="D194" s="25">
@@ -7750,7 +7804,7 @@
     <row r="195" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="22"/>
       <c r="B195" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C195" s="24"/>
       <c r="D195" s="25"/>
@@ -7778,7 +7832,7 @@
     <row r="196" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="17"/>
       <c r="B196" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C196" s="19"/>
       <c r="D196" s="20">
@@ -7808,7 +7862,7 @@
     <row r="197" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="22"/>
       <c r="B197" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C197" s="24"/>
       <c r="D197" s="25">
@@ -7838,7 +7892,7 @@
     <row r="198" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="22"/>
       <c r="B198" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C198" s="24"/>
       <c r="D198" s="25">
@@ -7868,7 +7922,7 @@
     <row r="199" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="22"/>
       <c r="B199" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C199" s="24"/>
       <c r="D199" s="25">
@@ -7898,7 +7952,7 @@
     <row r="200" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="22"/>
       <c r="B200" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C200" s="24"/>
       <c r="D200" s="25">
@@ -7928,7 +7982,7 @@
     <row r="201" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="22"/>
       <c r="B201" s="23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C201" s="24"/>
       <c r="D201" s="25">
@@ -7958,7 +8012,7 @@
     <row r="202" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="17"/>
       <c r="B202" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C202" s="19"/>
       <c r="D202" s="20">
@@ -7988,7 +8042,7 @@
     <row r="203" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="22"/>
       <c r="B203" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C203" s="24"/>
       <c r="D203" s="25">
@@ -8018,7 +8072,7 @@
     <row r="204" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="22"/>
       <c r="B204" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C204" s="24"/>
       <c r="D204" s="25">
@@ -8048,7 +8102,7 @@
     <row r="205" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="22"/>
       <c r="B205" s="23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C205" s="24"/>
       <c r="D205" s="25">
@@ -8078,7 +8132,7 @@
     <row r="206" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="22"/>
       <c r="B206" s="23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C206" s="24"/>
       <c r="D206" s="25">
@@ -8108,7 +8162,7 @@
     <row r="207" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="22"/>
       <c r="B207" s="23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C207" s="24"/>
       <c r="D207" s="25">
@@ -8138,7 +8192,7 @@
     <row r="208" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="17"/>
       <c r="B208" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C208" s="19"/>
       <c r="D208" s="20">
@@ -8168,7 +8222,7 @@
     <row r="209" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="22"/>
       <c r="B209" s="23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C209" s="24"/>
       <c r="D209" s="25">
@@ -8198,7 +8252,7 @@
     <row r="210" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="22"/>
       <c r="B210" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C210" s="24"/>
       <c r="D210" s="25">
@@ -8228,7 +8282,7 @@
     <row r="211" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="22"/>
       <c r="B211" s="23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C211" s="24"/>
       <c r="D211" s="25">
@@ -8258,7 +8312,7 @@
     <row r="212" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="22"/>
       <c r="B212" s="23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C212" s="24"/>
       <c r="D212" s="25">
@@ -8288,7 +8342,7 @@
     <row r="213" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="22"/>
       <c r="B213" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C213" s="24"/>
       <c r="D213" s="25">
@@ -8318,7 +8372,7 @@
     <row r="214" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="22"/>
       <c r="B214" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C214" s="24"/>
       <c r="D214" s="25">
@@ -8348,7 +8402,7 @@
     <row r="215" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="17"/>
       <c r="B215" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C215" s="19"/>
       <c r="D215" s="20">
@@ -8378,7 +8432,7 @@
     <row r="216" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="17"/>
       <c r="B216" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C216" s="19"/>
       <c r="D216" s="20">
@@ -8408,7 +8462,7 @@
     <row r="217" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="17"/>
       <c r="B217" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C217" s="19"/>
       <c r="D217" s="20">
@@ -8464,7 +8518,7 @@
     <row r="219" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="17"/>
       <c r="B219" s="54" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C219" s="24"/>
       <c r="D219" s="25"/>
@@ -8492,7 +8546,7 @@
     <row r="220" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="17"/>
       <c r="B220" s="23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C220" s="24"/>
       <c r="D220" s="25">
@@ -8522,7 +8576,7 @@
     <row r="221" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="17"/>
       <c r="B221" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C221" s="24"/>
       <c r="D221" s="25">
@@ -8552,7 +8606,7 @@
     <row r="222" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="17"/>
       <c r="B222" s="23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C222" s="24"/>
       <c r="D222" s="25">
@@ -8582,7 +8636,7 @@
     <row r="223" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="17"/>
       <c r="B223" s="23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C223" s="24"/>
       <c r="D223" s="25">
@@ -8612,7 +8666,7 @@
     <row r="224" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="17"/>
       <c r="B224" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C224" s="24"/>
       <c r="D224" s="25">
@@ -8668,7 +8722,7 @@
     <row r="226" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="22"/>
       <c r="B226" s="54" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C226" s="24"/>
       <c r="D226" s="25"/>
@@ -8696,7 +8750,7 @@
     <row r="227" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="22"/>
       <c r="B227" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C227" s="24"/>
       <c r="D227" s="25">
@@ -8726,7 +8780,7 @@
     <row r="228" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="22"/>
       <c r="B228" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C228" s="24"/>
       <c r="D228" s="25">
@@ -8756,7 +8810,7 @@
     <row r="229" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="22"/>
       <c r="B229" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C229" s="24"/>
       <c r="D229" s="25">
@@ -8812,7 +8866,7 @@
     <row r="231" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="22"/>
       <c r="B231" s="26" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C231" s="24"/>
       <c r="D231" s="25"/>
@@ -8840,7 +8894,7 @@
     <row r="232" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="17"/>
       <c r="B232" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C232" s="19"/>
       <c r="D232" s="20">
@@ -8870,7 +8924,7 @@
     <row r="233" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="17"/>
       <c r="B233" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C233" s="19"/>
       <c r="D233" s="20">
@@ -8900,7 +8954,7 @@
     <row r="234" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="17"/>
       <c r="B234" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C234" s="19"/>
       <c r="D234" s="20">
@@ -8930,7 +8984,7 @@
     <row r="235" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="17"/>
       <c r="B235" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C235" s="19"/>
       <c r="D235" s="20">
@@ -8986,7 +9040,7 @@
     <row r="237" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="22"/>
       <c r="B237" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C237" s="24"/>
       <c r="D237" s="25"/>
@@ -9014,7 +9068,7 @@
     <row r="238" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="22"/>
       <c r="B238" s="23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C238" s="24"/>
       <c r="D238" s="25">
@@ -9044,7 +9098,7 @@
     <row r="239" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="22"/>
       <c r="B239" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C239" s="24"/>
       <c r="D239" s="25">
@@ -9074,7 +9128,7 @@
     <row r="240" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="22"/>
       <c r="B240" s="23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C240" s="24"/>
       <c r="D240" s="25">
@@ -9104,7 +9158,7 @@
     <row r="241" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="17"/>
       <c r="B241" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C241" s="19"/>
       <c r="D241" s="20">
@@ -9160,7 +9214,7 @@
     <row r="243" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="22"/>
       <c r="B243" s="26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C243" s="24"/>
       <c r="D243" s="25"/>
@@ -9188,7 +9242,7 @@
     <row r="244" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="22"/>
       <c r="B244" s="23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C244" s="24"/>
       <c r="D244" s="25">
@@ -9218,7 +9272,7 @@
     <row r="245" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="17"/>
       <c r="B245" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C245" s="19"/>
       <c r="D245" s="20">
@@ -9274,7 +9328,7 @@
     <row r="247" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="22"/>
       <c r="B247" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C247" s="24"/>
       <c r="D247" s="25"/>
@@ -9302,7 +9356,7 @@
     <row r="248" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="22"/>
       <c r="B248" s="23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C248" s="24"/>
       <c r="D248" s="25">
@@ -9332,7 +9386,7 @@
     <row r="249" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="22"/>
       <c r="B249" s="23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C249" s="24"/>
       <c r="D249" s="25">
@@ -9362,7 +9416,7 @@
     <row r="250" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="22"/>
       <c r="B250" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C250" s="19"/>
       <c r="D250" s="20">
@@ -9392,7 +9446,7 @@
     <row r="251" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="22"/>
       <c r="B251" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C251" s="24"/>
       <c r="D251" s="25">
@@ -9422,7 +9476,7 @@
     <row r="252" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="17"/>
       <c r="B252" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C252" s="24"/>
       <c r="D252" s="25">
@@ -9452,7 +9506,7 @@
     <row r="253" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="17"/>
       <c r="B253" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C253" s="19"/>
       <c r="D253" s="20">
@@ -9586,7 +9640,7 @@
     <row r="258" spans="1:24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="22"/>
       <c r="B258" s="23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C258" s="24"/>
       <c r="D258" s="25">
@@ -9616,7 +9670,7 @@
     <row r="259" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A259" s="22"/>
       <c r="B259" s="55" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C259" s="28"/>
       <c r="D259" s="29"/>
@@ -9670,7 +9724,7 @@
     <row r="261" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="17"/>
       <c r="B261" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C261" s="19"/>
       <c r="D261" s="20">
@@ -9700,7 +9754,7 @@
     <row r="262" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="17"/>
       <c r="B262" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C262" s="19"/>
       <c r="D262" s="20">
@@ -9756,7 +9810,7 @@
     <row r="264" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="22"/>
       <c r="B264" s="23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C264" s="19"/>
       <c r="D264" s="25">
@@ -9786,7 +9840,7 @@
     <row r="265" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="22"/>
       <c r="B265" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C265" s="19"/>
       <c r="D265" s="20">
@@ -9816,7 +9870,7 @@
     <row r="266" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="22"/>
       <c r="B266" s="23" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C266" s="24"/>
       <c r="D266" s="25">
@@ -9846,7 +9900,7 @@
     <row r="267" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="22"/>
       <c r="B267" s="23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C267" s="24"/>
       <c r="D267" s="25">
@@ -9876,7 +9930,7 @@
     <row r="268" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="22"/>
       <c r="B268" s="23" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C268" s="24"/>
       <c r="D268" s="25">
@@ -9906,7 +9960,7 @@
     <row r="269" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="22"/>
       <c r="B269" s="23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C269" s="24"/>
       <c r="D269" s="25">
@@ -9936,7 +9990,7 @@
     <row r="270" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="22"/>
       <c r="B270" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C270" s="24"/>
       <c r="D270" s="25">
@@ -9966,7 +10020,7 @@
     <row r="271" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="22"/>
       <c r="B271" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C271" s="19"/>
       <c r="D271" s="20">
@@ -9996,7 +10050,7 @@
     <row r="272" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="22"/>
       <c r="B272" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C272" s="19"/>
       <c r="D272" s="20">
@@ -10026,7 +10080,7 @@
     <row r="273" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="22"/>
       <c r="B273" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C273" s="19"/>
       <c r="D273" s="20">
@@ -10056,7 +10110,7 @@
     <row r="274" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="22"/>
       <c r="B274" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C274" s="24"/>
       <c r="D274" s="25">
@@ -10086,7 +10140,7 @@
     <row r="275" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="22"/>
       <c r="B275" s="23" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C275" s="24"/>
       <c r="D275" s="25">
@@ -10116,7 +10170,7 @@
     <row r="276" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="22"/>
       <c r="B276" s="23" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C276" s="24"/>
       <c r="D276" s="25">
@@ -10146,7 +10200,7 @@
     <row r="277" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="22"/>
       <c r="B277" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C277" s="24"/>
       <c r="D277" s="25">
@@ -10176,7 +10230,7 @@
     <row r="278" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="22"/>
       <c r="B278" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C278" s="19"/>
       <c r="D278" s="20">
@@ -10206,7 +10260,7 @@
     <row r="279" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="22"/>
       <c r="B279" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C279" s="24"/>
       <c r="D279" s="25">
@@ -10236,7 +10290,7 @@
     <row r="280" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="22"/>
       <c r="B280" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C280" s="24"/>
       <c r="D280" s="25">
@@ -10266,7 +10320,7 @@
     <row r="281" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="22"/>
       <c r="B281" s="23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C281" s="24"/>
       <c r="D281" s="25">
@@ -10296,7 +10350,7 @@
     <row r="282" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="22"/>
       <c r="B282" s="23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C282" s="24"/>
       <c r="D282" s="25">
@@ -10326,7 +10380,7 @@
     <row r="283" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="22"/>
       <c r="B283" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C283" s="19"/>
       <c r="D283" s="20">
@@ -10356,7 +10410,7 @@
     <row r="284" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="22"/>
       <c r="B284" s="23" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C284" s="24"/>
       <c r="D284" s="25">
@@ -10386,7 +10440,7 @@
     <row r="285" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="22"/>
       <c r="B285" s="23" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C285" s="24"/>
       <c r="D285" s="25">
@@ -10416,7 +10470,7 @@
     <row r="286" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="22"/>
       <c r="B286" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C286" s="19"/>
       <c r="D286" s="20">
@@ -10446,7 +10500,7 @@
     <row r="287" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="22"/>
       <c r="B287" s="23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C287" s="24"/>
       <c r="D287" s="25">
@@ -10476,7 +10530,7 @@
     <row r="288" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="22"/>
       <c r="B288" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C288" s="24"/>
       <c r="D288" s="25">
@@ -10506,7 +10560,7 @@
     <row r="289" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="22"/>
       <c r="B289" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C289" s="24"/>
       <c r="D289" s="25">
@@ -10536,7 +10590,7 @@
     <row r="290" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="22"/>
       <c r="B290" s="23" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C290" s="24"/>
       <c r="D290" s="25">
@@ -10592,7 +10646,7 @@
     <row r="292" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="17"/>
       <c r="B292" s="56" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C292" s="37"/>
       <c r="D292" s="38">
@@ -10622,7 +10676,7 @@
     <row r="293" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="22"/>
       <c r="B293" s="23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C293" s="24"/>
       <c r="D293" s="25">
@@ -10652,7 +10706,7 @@
     <row r="294" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="17"/>
       <c r="B294" s="23" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C294" s="19"/>
       <c r="D294" s="25">
@@ -10682,7 +10736,7 @@
     <row r="295" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="22"/>
       <c r="B295" s="23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C295" s="24"/>
       <c r="D295" s="25">
@@ -10712,7 +10766,7 @@
     <row r="296" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="17"/>
       <c r="B296" s="23" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C296" s="19"/>
       <c r="D296" s="25">
@@ -10742,7 +10796,7 @@
     <row r="297" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="17"/>
       <c r="B297" s="23" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C297" s="19"/>
       <c r="D297" s="25">
@@ -10772,7 +10826,7 @@
     <row r="298" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="22"/>
       <c r="B298" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C298" s="19"/>
       <c r="D298" s="20">
@@ -10802,7 +10856,7 @@
     <row r="299" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="22"/>
       <c r="B299" s="23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C299" s="24"/>
       <c r="D299" s="25">
@@ -10832,7 +10886,7 @@
     <row r="300" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="22"/>
       <c r="B300" s="23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C300" s="24"/>
       <c r="D300" s="25">
@@ -10862,7 +10916,7 @@
     <row r="301" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="22"/>
       <c r="B301" s="23" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C301" s="24"/>
       <c r="D301" s="25">
@@ -10892,7 +10946,7 @@
     <row r="302" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="22"/>
       <c r="B302" s="23" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C302" s="24"/>
       <c r="D302" s="25">
@@ -10922,7 +10976,7 @@
     <row r="303" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="17"/>
       <c r="B303" s="23" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C303" s="24"/>
       <c r="D303" s="25">
@@ -10952,7 +11006,7 @@
     <row r="304" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="17"/>
       <c r="B304" s="23" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C304" s="19"/>
       <c r="D304" s="25">
@@ -10982,7 +11036,7 @@
     <row r="305" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="22"/>
       <c r="B305" s="23" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C305" s="24"/>
       <c r="D305" s="25">
@@ -11012,7 +11066,7 @@
     <row r="306" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="17"/>
       <c r="B306" s="23" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C306" s="19"/>
       <c r="D306" s="25">
@@ -11042,7 +11096,7 @@
     <row r="307" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="22"/>
       <c r="B307" s="23" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C307" s="24"/>
       <c r="D307" s="25">
@@ -11072,7 +11126,7 @@
     <row r="308" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="22"/>
       <c r="B308" s="23" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C308" s="24"/>
       <c r="D308" s="25">
@@ -11102,7 +11156,7 @@
     <row r="309" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="22"/>
       <c r="B309" s="23" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C309" s="24"/>
       <c r="D309" s="25">
@@ -11132,7 +11186,7 @@
     <row r="310" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="17"/>
       <c r="B310" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C310" s="19"/>
       <c r="D310" s="20">
@@ -11162,7 +11216,7 @@
     <row r="311" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="17"/>
       <c r="B311" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C311" s="19"/>
       <c r="D311" s="20">
@@ -11218,7 +11272,7 @@
     <row r="313" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="17"/>
       <c r="B313" s="56" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C313" s="19"/>
       <c r="D313" s="20">
@@ -11248,7 +11302,7 @@
     <row r="314" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="22"/>
       <c r="B314" s="23" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C314" s="24"/>
       <c r="D314" s="25">
@@ -11278,7 +11332,7 @@
     <row r="315" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="22"/>
       <c r="B315" s="23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C315" s="24"/>
       <c r="D315" s="25">
@@ -11308,7 +11362,7 @@
     <row r="316" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="22"/>
       <c r="B316" s="23" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C316" s="24"/>
       <c r="D316" s="25">
@@ -11338,7 +11392,7 @@
     <row r="317" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="22"/>
       <c r="B317" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C317" s="24"/>
       <c r="D317" s="25">
@@ -11368,7 +11422,7 @@
     <row r="318" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="22"/>
       <c r="B318" s="23" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C318" s="24"/>
       <c r="D318" s="25">
@@ -11398,7 +11452,7 @@
     <row r="319" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="17"/>
       <c r="B319" s="23" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C319" s="19"/>
       <c r="D319" s="25">
@@ -11428,7 +11482,7 @@
     <row r="320" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="22"/>
       <c r="B320" s="23" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C320" s="24"/>
       <c r="D320" s="25">
@@ -11458,7 +11512,7 @@
     <row r="321" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="17"/>
       <c r="B321" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C321" s="19"/>
       <c r="D321" s="20">
@@ -11488,7 +11542,7 @@
     <row r="322" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="17"/>
       <c r="B322" s="23" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C322" s="19"/>
       <c r="D322" s="25">
@@ -11518,7 +11572,7 @@
     <row r="323" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="22"/>
       <c r="B323" s="23" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C323" s="24"/>
       <c r="D323" s="25">
@@ -11548,7 +11602,7 @@
     <row r="324" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="22"/>
       <c r="B324" s="23" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C324" s="24"/>
       <c r="D324" s="25">
@@ -11604,7 +11658,7 @@
     <row r="326" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="17"/>
       <c r="B326" s="56" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C326" s="19"/>
       <c r="D326" s="20">
@@ -11634,7 +11688,7 @@
     <row r="327" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="17"/>
       <c r="B327" s="23" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C327" s="19"/>
       <c r="D327" s="25">
@@ -11664,7 +11718,7 @@
     <row r="328" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="22"/>
       <c r="B328" s="23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C328" s="24"/>
       <c r="D328" s="25">
@@ -11694,7 +11748,7 @@
     <row r="329" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="22"/>
       <c r="B329" s="23" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C329" s="24"/>
       <c r="D329" s="25">
@@ -11724,7 +11778,7 @@
     <row r="330" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="17"/>
       <c r="B330" s="23" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C330" s="19"/>
       <c r="D330" s="25">
@@ -11754,7 +11808,7 @@
     <row r="331" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="17"/>
       <c r="B331" s="23" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C331" s="19"/>
       <c r="D331" s="25">
@@ -11784,7 +11838,7 @@
     <row r="332" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="22"/>
       <c r="B332" s="23" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C332" s="24"/>
       <c r="D332" s="25">
@@ -11814,7 +11868,7 @@
     <row r="333" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="22"/>
       <c r="B333" s="23" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C333" s="24"/>
       <c r="D333" s="25">
@@ -11844,7 +11898,7 @@
     <row r="334" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="17"/>
       <c r="B334" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C334" s="19"/>
       <c r="D334" s="20">
@@ -11900,7 +11954,7 @@
     <row r="336" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="22"/>
       <c r="B336" s="36" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C336" s="24"/>
       <c r="D336" s="25"/>
@@ -11928,7 +11982,7 @@
     <row r="337" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="17"/>
       <c r="B337" s="39" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C337" s="40"/>
       <c r="D337" s="41">
@@ -11958,7 +12012,7 @@
     <row r="338" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="17"/>
       <c r="B338" s="18" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C338" s="24"/>
       <c r="D338" s="20">
@@ -11988,7 +12042,7 @@
     <row r="339" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="22"/>
       <c r="B339" s="18" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C339" s="19"/>
       <c r="D339" s="20">
@@ -12018,7 +12072,7 @@
     <row r="340" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="17"/>
       <c r="B340" s="18" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C340" s="19"/>
       <c r="D340" s="20">
@@ -12048,7 +12102,7 @@
     <row r="341" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="17"/>
       <c r="B341" s="18" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C341" s="19"/>
       <c r="D341" s="20">
@@ -12078,7 +12132,7 @@
     <row r="342" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="17"/>
       <c r="B342" s="18" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C342" s="19"/>
       <c r="D342" s="20">
@@ -12108,7 +12162,7 @@
     <row r="343" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="17"/>
       <c r="B343" s="18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C343" s="19"/>
       <c r="D343" s="20">
@@ -12138,7 +12192,7 @@
     <row r="344" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="17"/>
       <c r="B344" s="18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C344" s="19"/>
       <c r="D344" s="20">
@@ -12168,7 +12222,7 @@
     <row r="345" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="17"/>
       <c r="B345" s="18" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C345" s="19"/>
       <c r="D345" s="20">
@@ -12198,7 +12252,7 @@
     <row r="346" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="17"/>
       <c r="B346" s="18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C346" s="19"/>
       <c r="D346" s="20">
@@ -12228,7 +12282,7 @@
     <row r="347" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="17"/>
       <c r="B347" s="18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C347" s="19"/>
       <c r="D347" s="20">
@@ -12258,7 +12312,7 @@
     <row r="348" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="17"/>
       <c r="B348" s="18" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C348" s="19"/>
       <c r="D348" s="20">
@@ -12314,7 +12368,7 @@
     <row r="350" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="22"/>
       <c r="B350" s="54" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C350" s="24"/>
       <c r="D350" s="20"/>
@@ -12342,7 +12396,7 @@
     <row r="351" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="17"/>
       <c r="B351" s="23" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C351" s="24"/>
       <c r="D351" s="25">
@@ -12372,7 +12426,7 @@
     <row r="352" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="17"/>
       <c r="B352" s="23" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C352" s="24"/>
       <c r="D352" s="25">
@@ -12402,7 +12456,7 @@
     <row r="353" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="17"/>
       <c r="B353" s="23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C353" s="24"/>
       <c r="D353" s="25">
@@ -12432,7 +12486,7 @@
     <row r="354" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="17"/>
       <c r="B354" s="23" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C354" s="24"/>
       <c r="D354" s="25">
@@ -12462,7 +12516,7 @@
     <row r="355" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="17"/>
       <c r="B355" s="23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C355" s="24"/>
       <c r="D355" s="25">
@@ -12492,7 +12546,7 @@
     <row r="356" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="17"/>
       <c r="B356" s="23" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C356" s="24"/>
       <c r="D356" s="25">
@@ -12574,7 +12628,7 @@
     <row r="359" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="42"/>
       <c r="B359" s="46" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C359" s="47"/>
       <c r="D359" s="48"/>
@@ -12602,7 +12656,7 @@
     <row r="360" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="42"/>
       <c r="B360" s="23" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C360" s="24"/>
       <c r="D360" s="25">
@@ -12632,7 +12686,7 @@
     <row r="361" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="42"/>
       <c r="B361" s="23" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C361" s="24"/>
       <c r="D361" s="25">
@@ -12662,7 +12716,7 @@
     <row r="362" spans="1:24" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A362" s="42"/>
       <c r="B362" s="50" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C362" s="28"/>
       <c r="D362" s="29">
